--- a/data/trans_orig/P36B06-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B06-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>21364</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13495</v>
+        <v>14358</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32338</v>
+        <v>31622</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04333295922948172</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0273727370482892</v>
+        <v>0.02912338789237441</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06559196095188129</v>
+        <v>0.06413956132176238</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -764,19 +764,19 @@
         <v>20488</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13405</v>
+        <v>13312</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30307</v>
+        <v>30663</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04392523278446446</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0287405311494403</v>
+        <v>0.02853998688108048</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06497581089838715</v>
+        <v>0.0657406232185801</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>44</v>
@@ -785,19 +785,19 @@
         <v>41852</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30142</v>
+        <v>30263</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>54649</v>
+        <v>54731</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0436208881909692</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03141630809288255</v>
+        <v>0.03154233277434785</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05695812516099993</v>
+        <v>0.0570436206997046</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>50419</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>37672</v>
+        <v>38830</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>63710</v>
+        <v>66555</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.102265459049236</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07640952102836569</v>
+        <v>0.07876001426342563</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1292243315490421</v>
+        <v>0.1349944623387863</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>39</v>
@@ -835,19 +835,19 @@
         <v>37503</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>27264</v>
+        <v>26628</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>51662</v>
+        <v>49578</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08040390121110022</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05845323259919782</v>
+        <v>0.05709002479321179</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1107609596958395</v>
+        <v>0.1062935629083162</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>90</v>
@@ -856,19 +856,19 @@
         <v>87922</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>72990</v>
+        <v>69588</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>105613</v>
+        <v>104861</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09163764088670406</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0760744958847451</v>
+        <v>0.07252910777753982</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1100762980447199</v>
+        <v>0.1092925656725735</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>99107</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>83105</v>
+        <v>81364</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>119534</v>
+        <v>117991</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2010186477978793</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.168561702985888</v>
+        <v>0.1650321116821691</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2424514515522963</v>
+        <v>0.2393223354144783</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>101</v>
@@ -906,19 +906,19 @@
         <v>96069</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>80249</v>
+        <v>79782</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>113024</v>
+        <v>115231</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.205967879015939</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1720488058009656</v>
+        <v>0.171047773249789</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2423166454070638</v>
+        <v>0.247048649035418</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>201</v>
@@ -927,19 +927,19 @@
         <v>195176</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>172689</v>
+        <v>170875</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>221824</v>
+        <v>222149</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2034246762163166</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1799875492757405</v>
+        <v>0.1780967866744067</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2311988186892074</v>
+        <v>0.2315379972045409</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>168789</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>148046</v>
+        <v>148666</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>191019</v>
+        <v>190492</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3423554668745912</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3002820166267298</v>
+        <v>0.3015408528529179</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3874443446978887</v>
+        <v>0.3863771246497413</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>146</v>
@@ -977,19 +977,19 @@
         <v>138631</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>118768</v>
+        <v>119765</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>157741</v>
+        <v>156617</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2972186953553121</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2546321654741418</v>
+        <v>0.2567701526633716</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3381883097613377</v>
+        <v>0.3357777990397037</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>315</v>
@@ -998,19 +998,19 @@
         <v>307420</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>277218</v>
+        <v>278486</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>334311</v>
+        <v>335758</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3204125932833122</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2889342637134034</v>
+        <v>0.2902554458201524</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3484399287628787</v>
+        <v>0.3499479920383757</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>153343</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>133974</v>
+        <v>133323</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>173255</v>
+        <v>174302</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3110274670488117</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2717402918212964</v>
+        <v>0.270419840671097</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3514149299356742</v>
+        <v>0.353538155177933</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>180</v>
@@ -1048,19 +1048,19 @@
         <v>173737</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>155083</v>
+        <v>152911</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>193293</v>
+        <v>191653</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3724842916331842</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3324907205596463</v>
+        <v>0.3278341787531412</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4144094644531045</v>
+        <v>0.4108933210665237</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>336</v>
@@ -1069,19 +1069,19 @@
         <v>327081</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>297297</v>
+        <v>298456</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>355839</v>
+        <v>355290</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.340904201422698</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3098618089154251</v>
+        <v>0.3110698643221089</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3708772833575518</v>
+        <v>0.3703050406402901</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>23584</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15479</v>
+        <v>15839</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35296</v>
+        <v>35692</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03210666195190065</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0210732345376414</v>
+        <v>0.02156350865053689</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04805181006010972</v>
+        <v>0.04859086257123076</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -1194,19 +1194,19 @@
         <v>17984</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10721</v>
+        <v>10879</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27717</v>
+        <v>27678</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02875230419230427</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01714005443945582</v>
+        <v>0.01739210014062323</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04431230296295637</v>
+        <v>0.04424948810742597</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>39</v>
@@ -1215,19 +1215,19 @@
         <v>41568</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>30533</v>
+        <v>30630</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>56294</v>
+        <v>56522</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03056395835267586</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02245020519131757</v>
+        <v>0.02252132274712645</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0413917007698338</v>
+        <v>0.04155914228848117</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>55558</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>42540</v>
+        <v>41279</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>71094</v>
+        <v>70204</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07563680402122852</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05791405221439843</v>
+        <v>0.05619709014666922</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09678756721364135</v>
+        <v>0.09557549615969126</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>24</v>
@@ -1265,19 +1265,19 @@
         <v>25697</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>16535</v>
+        <v>16337</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>37886</v>
+        <v>38904</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04108210548301879</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02643557207575314</v>
+        <v>0.0261191388915864</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06056948506668482</v>
+        <v>0.06219688952505625</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>77</v>
@@ -1286,19 +1286,19 @@
         <v>81255</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>64508</v>
+        <v>65828</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>99404</v>
+        <v>100670</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05974474311850655</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04743118416582855</v>
+        <v>0.04840152899459779</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07308929573729535</v>
+        <v>0.07402005861116021</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>124634</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>103869</v>
+        <v>103729</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>147619</v>
+        <v>144825</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1696754821350715</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1414072099725429</v>
+        <v>0.1412161299861903</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2009672376350106</v>
+        <v>0.1971636247092586</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>90</v>
@@ -1336,19 +1336,19 @@
         <v>91846</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>75625</v>
+        <v>74841</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>109477</v>
+        <v>110884</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1468381348856251</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1209044240075969</v>
+        <v>0.1196517003475931</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1750246930662272</v>
+        <v>0.1772739761430623</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>211</v>
@@ -1357,19 +1357,19 @@
         <v>216480</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>190148</v>
+        <v>188933</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>247138</v>
+        <v>244502</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1591723514843008</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1398114970470005</v>
+        <v>0.1389178092506246</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1817142227582577</v>
+        <v>0.1797764189710903</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>221704</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>197493</v>
+        <v>196146</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>251332</v>
+        <v>246188</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3018266414887634</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2688658231006002</v>
+        <v>0.2670314702035465</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3421614183896611</v>
+        <v>0.3351590257596017</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>172</v>
@@ -1407,19 +1407,19 @@
         <v>184568</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>162419</v>
+        <v>164004</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>208140</v>
+        <v>209712</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2950756708959966</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2596657838536345</v>
+        <v>0.2621995324891625</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3327613064019183</v>
+        <v>0.3352734376968993</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>380</v>
@@ -1428,19 +1428,19 @@
         <v>406272</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>374943</v>
+        <v>372021</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>443650</v>
+        <v>442655</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2987218007478118</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2756863853193586</v>
+        <v>0.2735382719110934</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3262054033426501</v>
+        <v>0.325473254937114</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>309061</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>279490</v>
+        <v>283446</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>336063</v>
+        <v>339392</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.420754410403036</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3804967327040068</v>
+        <v>0.3858821866705063</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4575142735073414</v>
+        <v>0.4620469478183927</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>288</v>
@@ -1478,19 +1478,19 @@
         <v>305399</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>280769</v>
+        <v>278491</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>330804</v>
+        <v>330894</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4882517845430553</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4488748928532707</v>
+        <v>0.4452342737906628</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.528868956719445</v>
+        <v>0.529011934981405</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>586</v>
@@ -1499,19 +1499,19 @@
         <v>614459</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>577254</v>
+        <v>577116</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>654964</v>
+        <v>650734</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.451797146296705</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4244406715255205</v>
+        <v>0.4243390604902303</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4815790863109067</v>
+        <v>0.4784691355232005</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>11764</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6111</v>
+        <v>6375</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21825</v>
+        <v>20939</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01844482099171404</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009581922455096361</v>
+        <v>0.009995414055353006</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03422050104107973</v>
+        <v>0.0328315414351963</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -1624,19 +1624,19 @@
         <v>17065</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10408</v>
+        <v>9965</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28653</v>
+        <v>27248</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02474082977401253</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01508965819996127</v>
+        <v>0.01444753382424922</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04154189991948237</v>
+        <v>0.0395039229440306</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>27</v>
@@ -1645,19 +1645,19 @@
         <v>28829</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19158</v>
+        <v>19399</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>41613</v>
+        <v>43889</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02171603609635359</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01443107420235733</v>
+        <v>0.01461292736969018</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0313459566240076</v>
+        <v>0.03306050197588521</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>29657</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19833</v>
+        <v>19838</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>42461</v>
+        <v>44751</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04650024555975765</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03109688367316459</v>
+        <v>0.03110501867858614</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06657597111384024</v>
+        <v>0.07016602691010396</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -1695,19 +1695,19 @@
         <v>16785</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9381</v>
+        <v>9557</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>25905</v>
+        <v>26322</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02433542276413608</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01360024822974064</v>
+        <v>0.01385542604153641</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0375570936692585</v>
+        <v>0.03816217087041239</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>45</v>
@@ -1716,19 +1716,19 @@
         <v>46442</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>34505</v>
+        <v>34236</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>61800</v>
+        <v>62936</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03498407624872526</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02599216768664564</v>
+        <v>0.02578939982682257</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04655255439503661</v>
+        <v>0.04740817420849881</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>102769</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>86169</v>
+        <v>86798</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>122877</v>
+        <v>123890</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1611338592340996</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1351060254313832</v>
+        <v>0.136092570534176</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1926614845991338</v>
+        <v>0.1942495486911994</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>85</v>
@@ -1766,19 +1766,19 @@
         <v>88350</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>72292</v>
+        <v>72222</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>105248</v>
+        <v>107710</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1280912847960306</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1048094642528752</v>
+        <v>0.1047084472146164</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1525892544411726</v>
+        <v>0.15615943841843</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>184</v>
@@ -1787,19 +1787,19 @@
         <v>191119</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>165536</v>
+        <v>167438</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>219293</v>
+        <v>221702</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1439659402658342</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1246945370905544</v>
+        <v>0.1261277625996012</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1651888226154268</v>
+        <v>0.1670034623070187</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>207522</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>182946</v>
+        <v>183998</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>231938</v>
+        <v>233101</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3253792288908066</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2868452005648259</v>
+        <v>0.288495398789932</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3636617348675891</v>
+        <v>0.3654848211811176</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>181</v>
@@ -1837,19 +1837,19 @@
         <v>186576</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>163348</v>
+        <v>163778</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>210049</v>
+        <v>210956</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.27050088500282</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2368245861793806</v>
+        <v>0.2374472839112494</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3045314004926213</v>
+        <v>0.3058471723654697</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>376</v>
@@ -1858,19 +1858,19 @@
         <v>394099</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>360837</v>
+        <v>357887</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>428100</v>
+        <v>426727</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2968661067444858</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2718106012834125</v>
+        <v>0.269588563936274</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3224786782115056</v>
+        <v>0.3214441422401758</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>286074</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>260220</v>
+        <v>261893</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>309919</v>
+        <v>313497</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4485418453236221</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.408005840509577</v>
+        <v>0.4106281217090665</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4859296523961106</v>
+        <v>0.4915398253222684</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>360</v>
@@ -1908,19 +1908,19 @@
         <v>380967</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>354494</v>
+        <v>352641</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>405942</v>
+        <v>407610</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5523315776630008</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5139499280899712</v>
+        <v>0.5112633766431336</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5885406509068893</v>
+        <v>0.5909589794493787</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>638</v>
@@ -1929,19 +1929,19 @@
         <v>667041</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>630021</v>
+        <v>629192</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>707483</v>
+        <v>705028</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5024678406446011</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4745815924590856</v>
+        <v>0.4739571777799821</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5329320563886123</v>
+        <v>0.531082504616725</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>7182</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2681</v>
+        <v>2801</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15615</v>
+        <v>15760</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01383394362285388</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005164957185724165</v>
+        <v>0.005394908856191802</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03007816725461404</v>
+        <v>0.03035820335247803</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -2057,16 +2057,16 @@
         <v>971</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8947</v>
+        <v>8818</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.006119893849747335</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001887163985556077</v>
+        <v>0.001885690277285783</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0173850443818</v>
+        <v>0.01713414227607302</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>9</v>
@@ -2075,19 +2075,19 @@
         <v>10332</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5279</v>
+        <v>4609</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>19382</v>
+        <v>20097</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.009993635626631378</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00510641136259227</v>
+        <v>0.004458618633000227</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01874847496849747</v>
+        <v>0.01944000188603482</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>25144</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>16502</v>
+        <v>16026</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>38984</v>
+        <v>36140</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04843243629256259</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03178605134795887</v>
+        <v>0.03086900349478561</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0750917951151263</v>
+        <v>0.06961404776806426</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>15</v>
@@ -2125,19 +2125,19 @@
         <v>16188</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>9459</v>
+        <v>9036</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>25971</v>
+        <v>25414</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03145310667498292</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01837983844122169</v>
+        <v>0.01755654018088596</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05046125285130591</v>
+        <v>0.04938016701543925</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>38</v>
@@ -2146,19 +2146,19 @@
         <v>41331</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>29590</v>
+        <v>30077</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>55777</v>
+        <v>56598</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03997956688948775</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02862227583464822</v>
+        <v>0.02909360768396379</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05395315683450579</v>
+        <v>0.05474681789614789</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>77185</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>61892</v>
+        <v>62830</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>95036</v>
+        <v>94833</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1486766039057794</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1192191494274369</v>
+        <v>0.1210256204952846</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1830623045305129</v>
+        <v>0.1826705932972926</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>55</v>
@@ -2196,19 +2196,19 @@
         <v>55242</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>43910</v>
+        <v>42190</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>72252</v>
+        <v>69673</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.107335156987229</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08531759582982286</v>
+        <v>0.08197636872099928</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1403858687256613</v>
+        <v>0.1353749963976372</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>128</v>
@@ -2217,19 +2217,19 @@
         <v>132427</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>111853</v>
+        <v>112357</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>155564</v>
+        <v>155716</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1280954702799355</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1081950569328912</v>
+        <v>0.1086820481735274</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1504757571501054</v>
+        <v>0.1506229374594057</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>147130</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>127424</v>
+        <v>127429</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>170745</v>
+        <v>167728</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2834067351570703</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2454493024216185</v>
+        <v>0.2454580599648069</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3288951020955184</v>
+        <v>0.323083011672252</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>127</v>
@@ -2267,19 +2267,19 @@
         <v>131068</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>112336</v>
+        <v>113729</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>151316</v>
+        <v>153064</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2546670936372374</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2182705356724038</v>
+        <v>0.2209754986334024</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2940077598627226</v>
+        <v>0.2974054839093486</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>264</v>
@@ -2288,19 +2288,19 @@
         <v>278198</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>250149</v>
+        <v>248248</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>306433</v>
+        <v>309342</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2690991952288264</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.241967620539813</v>
+        <v>0.2401281161193361</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2964105688839833</v>
+        <v>0.2992241599102409</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>262507</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>239606</v>
+        <v>237563</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>286318</v>
+        <v>285611</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5056502810217339</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4615382832255606</v>
+        <v>0.4576034929090033</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5515166901092574</v>
+        <v>0.5501546620514298</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>301</v>
@@ -2338,19 +2338,19 @@
         <v>309018</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>285921</v>
+        <v>284417</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>330153</v>
+        <v>330251</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6004247488508033</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5555460658316735</v>
+        <v>0.5526249570364077</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6414902514181905</v>
+        <v>0.6416794665917291</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>546</v>
@@ -2359,19 +2359,19 @@
         <v>571525</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>539017</v>
+        <v>539692</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>602969</v>
+        <v>605991</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.552832131975119</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5213869190639101</v>
+        <v>0.5220405715796332</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5832481122001316</v>
+        <v>0.586171089239772</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>4624</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1706</v>
+        <v>1761</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>10702</v>
+        <v>11046</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01195853363402714</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.004412392824207945</v>
+        <v>0.004554716899109116</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02767541411790962</v>
+        <v>0.02856346119926058</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>5149</v>
+        <v>4628</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.002289380161048961</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0127467017142407</v>
+        <v>0.01145592926542665</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6</v>
@@ -2505,19 +2505,19 @@
         <v>5549</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1977</v>
+        <v>1881</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>11696</v>
+        <v>11693</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.007018326067840057</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.002500941260527995</v>
+        <v>0.002379245831658146</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01479243118825394</v>
+        <v>0.0147876916067503</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>15418</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>9091</v>
+        <v>9434</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>23803</v>
+        <v>24341</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03986977117386081</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02350980567510545</v>
+        <v>0.02439602538251278</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06155206669516267</v>
+        <v>0.06294262692681961</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>8</v>
@@ -2555,19 +2555,19 @@
         <v>8827</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>4111</v>
+        <v>4345</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>16451</v>
+        <v>16911</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02184864390890918</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01017567436070739</v>
+        <v>0.01075620168462683</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04072277301476786</v>
+        <v>0.04185974237538503</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>25</v>
@@ -2576,19 +2576,19 @@
         <v>24245</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>15836</v>
+        <v>16135</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>35501</v>
+        <v>35460</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03066233543356193</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02002790028019092</v>
+        <v>0.0204064889173649</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04489789594634683</v>
+        <v>0.04484697996943056</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>52085</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>39900</v>
+        <v>39006</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>66150</v>
+        <v>66104</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1346865793122722</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1031778890977129</v>
+        <v>0.1008660678157177</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.17105735731882</v>
+        <v>0.1709404626296858</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>43</v>
@@ -2626,19 +2626,19 @@
         <v>43519</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>31798</v>
+        <v>32099</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>56319</v>
+        <v>57475</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1077231720635904</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.07870980801926471</v>
+        <v>0.07945454064770154</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1394082467739902</v>
+        <v>0.1422709821925213</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>95</v>
@@ -2647,19 +2647,19 @@
         <v>95603</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>77942</v>
+        <v>79098</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>113608</v>
+        <v>115198</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1209103134920656</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09857400192507816</v>
+        <v>0.1000365326818644</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1436811564341363</v>
+        <v>0.1456915445062283</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>101357</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>85707</v>
+        <v>84819</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>119271</v>
+        <v>117973</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2621020289906058</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2216304356019159</v>
+        <v>0.2193340236457244</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.308425326003628</v>
+        <v>0.3050691993192804</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>103</v>
@@ -2697,19 +2697,19 @@
         <v>105786</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>87393</v>
+        <v>88725</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>121893</v>
+        <v>124514</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2618554643709722</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2163278984889992</v>
+        <v>0.2196250567715607</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3017246518934172</v>
+        <v>0.3082133348051943</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>206</v>
@@ -2718,19 +2718,19 @@
         <v>207143</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>183724</v>
+        <v>184537</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>230949</v>
+        <v>233992</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2619760530814559</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2323574371826292</v>
+        <v>0.233385691606725</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2920829236411113</v>
+        <v>0.2959318428650429</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>213225</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>190707</v>
+        <v>192607</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>230978</v>
+        <v>231784</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5513830868892341</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4931518417288518</v>
+        <v>0.4980655736073503</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5972888323892559</v>
+        <v>0.5993740927264074</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>241</v>
@@ -2768,19 +2768,19 @@
         <v>244930</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>224738</v>
+        <v>224074</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>263601</v>
+        <v>263564</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6062833394954792</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5563021470264159</v>
+        <v>0.5546590485238924</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6524996633811775</v>
+        <v>0.6524088328328277</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>456</v>
@@ -2789,19 +2789,19 @@
         <v>458155</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>431805</v>
+        <v>432129</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>485266</v>
+        <v>482729</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5794329719250765</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5461070674913948</v>
+        <v>0.5465176482798842</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6137202684501754</v>
+        <v>0.6105117673839354</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>2717</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>813</v>
+        <v>822</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>7356</v>
+        <v>6917</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.009284846400857019</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.002779180523485671</v>
+        <v>0.002809396882272282</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02514326038490482</v>
+        <v>0.02364053994224926</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>4865</v>
+        <v>4916</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.002846349074548351</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01418601531539367</v>
+        <v>0.01433486990257203</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>4</v>
@@ -2935,19 +2935,19 @@
         <v>3693</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>925</v>
+        <v>930</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>8765</v>
+        <v>8575</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.005810541797795473</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.001455436919249857</v>
+        <v>0.001463527954200377</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01379191757041648</v>
+        <v>0.01349315178492751</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>3694</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>8674</v>
+        <v>9224</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01262501523519039</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.003465516332606217</v>
+        <v>0.00345583631757927</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02964784371069907</v>
+        <v>0.03152527504217842</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>5</v>
@@ -2985,19 +2985,19 @@
         <v>4716</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1860</v>
+        <v>1787</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>10390</v>
+        <v>10319</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01375194056025962</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.00542369481487163</v>
+        <v>0.005210249624376566</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.0302981527634763</v>
+        <v>0.03009031553003877</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>9</v>
@@ -3006,19 +3006,19 @@
         <v>8410</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>3815</v>
+        <v>3786</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>15162</v>
+        <v>15193</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0132331201462845</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.006002251791201462</v>
+        <v>0.005957087899989727</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.0238584361590393</v>
+        <v>0.02390615032659823</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>38209</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>27382</v>
+        <v>27307</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>49921</v>
+        <v>50028</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1305905575726957</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.09358716006892941</v>
+        <v>0.09333023605190702</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1706206661848866</v>
+        <v>0.1709870921053757</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>33</v>
@@ -3056,19 +3056,19 @@
         <v>31226</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>21603</v>
+        <v>21954</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>42134</v>
+        <v>41894</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.09105484622412524</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0629945937379693</v>
+        <v>0.06401895356931496</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1228635269252962</v>
+        <v>0.1221648436570283</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>73</v>
@@ -3077,19 +3077,19 @@
         <v>69434</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>55944</v>
+        <v>56266</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>85726</v>
+        <v>86154</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1092565262044786</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0880287479924948</v>
+        <v>0.08853539148516049</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1348914830692683</v>
+        <v>0.1355646147448666</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>57224</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>44684</v>
+        <v>44293</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>71056</v>
+        <v>71961</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1955820385358865</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1527213325710035</v>
+        <v>0.151386478308284</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2428571251978048</v>
+        <v>0.245949411462886</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>74</v>
@@ -3127,19 +3127,19 @@
         <v>68412</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>55323</v>
+        <v>55965</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>84414</v>
+        <v>83455</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1994914824260692</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1613227088678479</v>
+        <v>0.1631949920612284</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2461523551490827</v>
+        <v>0.2433556377474482</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>132</v>
@@ -3148,19 +3148,19 @@
         <v>125636</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>107697</v>
+        <v>106509</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>144467</v>
+        <v>147570</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.197691629984744</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.169463477389928</v>
+        <v>0.1675936740489296</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2273217434799711</v>
+        <v>0.2322052860217109</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>190740</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>174919</v>
+        <v>173808</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>206743</v>
+        <v>206525</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.6519175422553705</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5978439939132908</v>
+        <v>0.5940456121351404</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.7066115479062738</v>
+        <v>0.7058685442700391</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>258</v>
@@ -3198,19 +3198,19 @@
         <v>237604</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>221624</v>
+        <v>221711</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>253783</v>
+        <v>253861</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.6928553817149976</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6462580799351962</v>
+        <v>0.6465107714838962</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7400349908268173</v>
+        <v>0.7402615708957954</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>456</v>
@@ -3219,19 +3219,19 @@
         <v>428344</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>405788</v>
+        <v>404294</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>449836</v>
+        <v>449491</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.6740081818666974</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.6385165019624804</v>
+        <v>0.6361659405637919</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7078271523954549</v>
+        <v>0.707283711528373</v>
       </c>
     </row>
     <row r="39">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>10366</v>
+        <v>9929</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01368283862348384</v>
@@ -3335,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.04939088901865466</v>
+        <v>0.0473049678371076</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>8566</v>
+        <v>7862</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.007370508283315488</v>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02565249143416441</v>
+        <v>0.02354660258978956</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>4</v>
@@ -3365,19 +3365,19 @@
         <v>5333</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1318</v>
+        <v>1334</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>13899</v>
+        <v>13466</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.009806831933034875</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.002423712085561002</v>
+        <v>0.002452541238305999</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02555853913999543</v>
+        <v>0.02476273210424916</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>7148</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>3488</v>
+        <v>2771</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>14326</v>
+        <v>14548</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.03405543825769784</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.0166170540104979</v>
+        <v>0.01320217641467093</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.06825603214387105</v>
+        <v>0.06931669715165609</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>3</v>
@@ -3415,19 +3415,19 @@
         <v>3498</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>9576</v>
+        <v>10375</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01047589159744124</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.003208028998095597</v>
+        <v>0.003191871369174989</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.02867874681206512</v>
+        <v>0.03106994879051532</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>10</v>
@@ -3436,19 +3436,19 @@
         <v>10646</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>5396</v>
+        <v>4830</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>19178</v>
+        <v>19796</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01957671555344998</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.009922538234403651</v>
+        <v>0.00888139048963957</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.03526666212672885</v>
+        <v>0.03640415091778354</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>22587</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>14892</v>
+        <v>15424</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>33209</v>
+        <v>32559</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1076169634495285</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.07095476647298006</v>
+        <v>0.07349079826758624</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1582281638019677</v>
+        <v>0.1551306479828182</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>33</v>
@@ -3486,19 +3486,19 @@
         <v>38212</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>26700</v>
+        <v>26737</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>51692</v>
+        <v>51092</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1144394790607296</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.07996281915810698</v>
+        <v>0.08007403825898343</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.154810373426313</v>
+        <v>0.1530126754903947</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>57</v>
@@ -3507,19 +3507,19 @@
         <v>60799</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>46559</v>
+        <v>47064</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>77061</v>
+        <v>77519</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1118062429595743</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.08561932941588062</v>
+        <v>0.08654882538985664</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1417104056832661</v>
+        <v>0.1425522711732372</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>40568</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>31227</v>
+        <v>30469</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>52205</v>
+        <v>52261</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1932880287361878</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1487848901338968</v>
+        <v>0.1451703265360258</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.248733356353241</v>
+        <v>0.2489992165736265</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>49</v>
@@ -3557,19 +3557,19 @@
         <v>55782</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>41988</v>
+        <v>42008</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>71935</v>
+        <v>70474</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1670569642882358</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1257483548584479</v>
+        <v>0.1258061375272109</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2154320965083439</v>
+        <v>0.2110579626154091</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>94</v>
@@ -3578,19 +3578,19 @@
         <v>96350</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>80936</v>
+        <v>79653</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>116006</v>
+        <v>115079</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1771811750357605</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1488368993915737</v>
+        <v>0.1464778426917979</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2133274026566318</v>
+        <v>0.2116241549576998</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>136709</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>122099</v>
+        <v>122905</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>149022</v>
+        <v>150167</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.651356730933102</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.5817474583465027</v>
+        <v>0.5855883790022557</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.7100262384535116</v>
+        <v>0.7154804128778864</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>203</v>
@@ -3628,19 +3628,19 @@
         <v>233955</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>216698</v>
+        <v>217322</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>251990</v>
+        <v>251366</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.7006571567702778</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.6489755645623143</v>
+        <v>0.6508430187929841</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.7546699755882733</v>
+        <v>0.7527988980928234</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>345</v>
@@ -3649,19 +3649,19 @@
         <v>370664</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>348350</v>
+        <v>347879</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>393160</v>
+        <v>392646</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.6816290345181802</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.6405962634655935</v>
+        <v>0.6397285194278723</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.7229980887185692</v>
+        <v>0.7220538997315069</v>
       </c>
     </row>
     <row r="45">
@@ -3753,19 +3753,19 @@
         <v>74106</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>57977</v>
+        <v>57954</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>95041</v>
+        <v>92932</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.02263706308896276</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01771014915616418</v>
+        <v>0.01770292683570138</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.02903192798216335</v>
+        <v>0.02838784786091489</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>62</v>
@@ -3774,19 +3774,19 @@
         <v>63049</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>49776</v>
+        <v>49267</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>80861</v>
+        <v>81184</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01866923044671853</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.0147390912339077</v>
+        <v>0.014588260660082</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02394354015809129</v>
+        <v>0.02403924686130665</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>133</v>
@@ -3795,19 +3795,19 @@
         <v>137155</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>114447</v>
+        <v>114430</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>162686</v>
+        <v>163787</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.02062227594292272</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01720787844786798</v>
+        <v>0.0172053830011654</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02446099748269104</v>
+        <v>0.02462646900479864</v>
       </c>
     </row>
     <row r="47">
@@ -3824,19 +3824,19 @@
         <v>187038</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>160773</v>
+        <v>163955</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>214297</v>
+        <v>219366</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.05713393358480894</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.04911086754620883</v>
+        <v>0.05008297250891716</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.0654607560825945</v>
+        <v>0.06700903563829967</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>110</v>
@@ -3845,19 +3845,19 @@
         <v>113213</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>92617</v>
+        <v>94699</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>135845</v>
+        <v>138077</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.03352310567325092</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.02742448251367718</v>
+        <v>0.02804091576828992</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.04022451328318728</v>
+        <v>0.04088552173940645</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>294</v>
@@ -3866,19 +3866,19 @@
         <v>300251</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>266505</v>
+        <v>271567</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>333388</v>
+        <v>336731</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.04514482091984934</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.04007097805963238</v>
+        <v>0.04083202192745165</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.05012726296433984</v>
+        <v>0.05062986262077465</v>
       </c>
     </row>
     <row r="48">
@@ -3895,19 +3895,19 @@
         <v>516574</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>473243</v>
+        <v>474105</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>557930</v>
+        <v>557945</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1577966028534657</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1445604598619452</v>
+        <v>0.1448235949463249</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1704295678912087</v>
+        <v>0.1704339942374989</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>440</v>
@@ -3916,19 +3916,19 @@
         <v>444465</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>408345</v>
+        <v>405748</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>488519</v>
+        <v>486766</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1316088977983254</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1209135471987036</v>
+        <v>0.120144682878876</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1446536528872455</v>
+        <v>0.1441347106904677</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>949</v>
@@ -3937,19 +3937,19 @@
         <v>961039</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>907923</v>
+        <v>907915</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1024938</v>
+        <v>1016248</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1444990028066196</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1365126528172702</v>
+        <v>0.1365114375851447</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1541066689013366</v>
+        <v>0.1528001717769665</v>
       </c>
     </row>
     <row r="49">
@@ -3966,19 +3966,19 @@
         <v>944294</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>896181</v>
+        <v>893752</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>999396</v>
+        <v>992330</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2884510666534963</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2737540171136866</v>
+        <v>0.2730122837051124</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3052829617082556</v>
+        <v>0.3031245565041444</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>852</v>
@@ -3987,19 +3987,19 @@
         <v>870825</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>821529</v>
+        <v>821968</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>919158</v>
+        <v>923883</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2578569248226917</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.243260098915253</v>
+        <v>0.2433901454853151</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.2721688886469132</v>
+        <v>0.2735679957042363</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>1767</v>
@@ -4008,19 +4008,19 @@
         <v>1815119</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>1743412</v>
+        <v>1748689</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>1894359</v>
+        <v>1890639</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.2729159649335894</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2621344253691106</v>
+        <v>0.2629277493887835</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.284830330568197</v>
+        <v>0.2842710121528773</v>
       </c>
     </row>
     <row r="50">
@@ -4037,19 +4037,19 @@
         <v>1551659</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>1494908</v>
+        <v>1495695</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>1608410</v>
+        <v>1606654</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.4739813338192663</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.4566458179377809</v>
+        <v>0.4568862245678326</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.4913168865691118</v>
+        <v>0.4907806166780536</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>1831</v>
@@ -4058,19 +4058,19 @@
         <v>1885611</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>1832242</v>
+        <v>1826592</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>1947350</v>
+        <v>1939167</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.5583418412590134</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.5425389307739784</v>
+        <v>0.5408660012248312</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.5766232823267281</v>
+        <v>0.5742002409764182</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>3363</v>
@@ -4079,19 +4079,19 @@
         <v>3437270</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>3359844</v>
+        <v>3359202</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>3516693</v>
+        <v>3520563</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.5168179353970189</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.5051763927080075</v>
+        <v>0.5050799193207782</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.5287597377369444</v>
+        <v>0.5293416324904602</v>
       </c>
     </row>
     <row r="51">
@@ -4426,19 +4426,19 @@
         <v>14657</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8455</v>
+        <v>8860</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22707</v>
+        <v>24880</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03227269510092582</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01861695017623792</v>
+        <v>0.01950823195065966</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04999962014373148</v>
+        <v>0.05478467940386534</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -4447,19 +4447,19 @@
         <v>17280</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9666</v>
+        <v>10761</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25567</v>
+        <v>27861</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04016531963801235</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02246629021803487</v>
+        <v>0.02501229458336747</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05942743308474834</v>
+        <v>0.06475905477729521</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -4468,19 +4468,19 @@
         <v>31937</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21866</v>
+        <v>21949</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>43695</v>
+        <v>44466</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03611228649178672</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02472505703955442</v>
+        <v>0.02481851176757377</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04940818734860599</v>
+        <v>0.05027978024297942</v>
       </c>
     </row>
     <row r="5">
@@ -4497,19 +4497,19 @@
         <v>24670</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16608</v>
+        <v>16109</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>38401</v>
+        <v>36285</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05432113953101326</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03657059831884342</v>
+        <v>0.03547077894735265</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08455752292849231</v>
+        <v>0.07989705077025908</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -4518,19 +4518,19 @@
         <v>14638</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8598</v>
+        <v>8655</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>24367</v>
+        <v>23473</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03402439691452695</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01998557359601507</v>
+        <v>0.02011816577389369</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05663700240042738</v>
+        <v>0.05455952363405587</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>39</v>
@@ -4539,19 +4539,19 @@
         <v>39308</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>28150</v>
+        <v>27964</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>52780</v>
+        <v>53329</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04444721256963424</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03183007473308461</v>
+        <v>0.03161988933596792</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05968048321495648</v>
+        <v>0.06030141731977406</v>
       </c>
     </row>
     <row r="6">
@@ -4568,19 +4568,19 @@
         <v>83192</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>68248</v>
+        <v>67365</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>101086</v>
+        <v>99032</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1831827074684691</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1502767933459781</v>
+        <v>0.1483327022118358</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2225845403788846</v>
+        <v>0.2180621527000042</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>63</v>
@@ -4589,19 +4589,19 @@
         <v>66443</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>52112</v>
+        <v>52335</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>83847</v>
+        <v>82939</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1544350663523797</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.12112583097989</v>
+        <v>0.1216440436240886</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1948880529950298</v>
+        <v>0.1927774989892642</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>145</v>
@@ -4610,19 +4610,19 @@
         <v>149634</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>129312</v>
+        <v>128159</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>175703</v>
+        <v>174107</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1691976008897592</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1462184619691085</v>
+        <v>0.1449142111503318</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1986743367781059</v>
+        <v>0.1968698114516912</v>
       </c>
     </row>
     <row r="7">
@@ -4639,19 +4639,19 @@
         <v>118578</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>100862</v>
+        <v>100867</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>138124</v>
+        <v>138631</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2611013209927874</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2220912879995071</v>
+        <v>0.222103252998007</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3041407001951427</v>
+        <v>0.3052554172196995</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>119</v>
@@ -4660,19 +4660,19 @@
         <v>120600</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>102638</v>
+        <v>102212</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>139990</v>
+        <v>139225</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2803159224023851</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2385647897638231</v>
+        <v>0.237574269323925</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3253841727948945</v>
+        <v>0.3236068491030821</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>236</v>
@@ -4681,19 +4681,19 @@
         <v>239178</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>213876</v>
+        <v>214998</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>268199</v>
+        <v>268835</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2704488096265681</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2418385621076275</v>
+        <v>0.2431068385663962</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3032638365105212</v>
+        <v>0.3039821327379285</v>
       </c>
     </row>
     <row r="8">
@@ -4710,19 +4710,19 @@
         <v>213050</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>191560</v>
+        <v>192679</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>234359</v>
+        <v>235643</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4691221369068044</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4218023482383567</v>
+        <v>0.4242665257152869</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5160429321297448</v>
+        <v>0.5188703236686567</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>207</v>
@@ -4731,19 +4731,19 @@
         <v>211268</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>191619</v>
+        <v>192348</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>232706</v>
+        <v>234042</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4910592946926959</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4453862385949924</v>
+        <v>0.4470821545125521</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5408880580077599</v>
+        <v>0.5439926809053733</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>414</v>
@@ -4752,19 +4752,19 @@
         <v>424318</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>391247</v>
+        <v>391350</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>454744</v>
+        <v>452696</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4797940904222517</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4423983703237474</v>
+        <v>0.4425157176804529</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5141976094728028</v>
+        <v>0.5118813696843234</v>
       </c>
     </row>
     <row r="9">
@@ -4856,19 +4856,19 @@
         <v>25765</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17370</v>
+        <v>17429</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37734</v>
+        <v>38893</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03755096677900906</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02531530835700094</v>
+        <v>0.02540215235102923</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05499587731278507</v>
+        <v>0.05668430356894121</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -4877,19 +4877,19 @@
         <v>14978</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7977</v>
+        <v>7958</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24828</v>
+        <v>24333</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02458365507612107</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01309201064492542</v>
+        <v>0.01306154363637964</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04075056927938299</v>
+        <v>0.03993839583345815</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>39</v>
@@ -4898,19 +4898,19 @@
         <v>40743</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>29370</v>
+        <v>29397</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>54222</v>
+        <v>55302</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0314520002424211</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0226727719153706</v>
+        <v>0.02269321137748834</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04185718236295433</v>
+        <v>0.04269080890593824</v>
       </c>
     </row>
     <row r="11">
@@ -4927,19 +4927,19 @@
         <v>29379</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19865</v>
+        <v>19830</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>42573</v>
+        <v>43063</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04281789540447348</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02895281243772632</v>
+        <v>0.02890170909789986</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06204855760316908</v>
+        <v>0.06276269577724626</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>31</v>
@@ -4948,19 +4948,19 @@
         <v>32451</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>21631</v>
+        <v>22466</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>44712</v>
+        <v>45700</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0532614952687565</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03550305942433427</v>
+        <v>0.03687298401692581</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07338613456138816</v>
+        <v>0.0750082895247141</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>59</v>
@@ -4969,19 +4969,19 @@
         <v>61829</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>46632</v>
+        <v>48895</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>77850</v>
+        <v>79179</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04772987466071292</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03599784183721809</v>
+        <v>0.03774515487595733</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06009711236612744</v>
+        <v>0.06112311486255756</v>
       </c>
     </row>
     <row r="12">
@@ -4998,19 +4998,19 @@
         <v>106637</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>88456</v>
+        <v>87560</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>129387</v>
+        <v>126119</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1554185831628609</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1289211419087779</v>
+        <v>0.127614945187956</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1885753647599527</v>
+        <v>0.1838124785451148</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>44</v>
@@ -5019,19 +5019,19 @@
         <v>44843</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>32833</v>
+        <v>34339</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>57663</v>
+        <v>60498</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0736015653596816</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05388857783550099</v>
+        <v>0.05636152465543268</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09464328066220538</v>
+        <v>0.09929617375881146</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>148</v>
@@ -5040,19 +5040,19 @@
         <v>151480</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>131885</v>
+        <v>129098</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>179697</v>
+        <v>175584</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1169372645103697</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1018101622662861</v>
+        <v>0.09965874414888462</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1387197872633585</v>
+        <v>0.1355443302430842</v>
       </c>
     </row>
     <row r="13">
@@ -5069,19 +5069,19 @@
         <v>182475</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>160695</v>
+        <v>160079</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>207474</v>
+        <v>205506</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2659496447521306</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2342057452940898</v>
+        <v>0.2333074843624062</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3023836234090473</v>
+        <v>0.2995157077318711</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>128</v>
@@ -5090,19 +5090,19 @@
         <v>140016</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>119517</v>
+        <v>120454</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>162813</v>
+        <v>164528</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2298104339102557</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1961643928522882</v>
+        <v>0.1977024715563464</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2672275553813773</v>
+        <v>0.2700414665126629</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>305</v>
@@ -5111,19 +5111,19 @@
         <v>322492</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>292058</v>
+        <v>288606</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>356806</v>
+        <v>353885</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2489521480748352</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2254581008196525</v>
+        <v>0.2227932824849923</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2754414965874251</v>
+        <v>0.2731862982104069</v>
       </c>
     </row>
     <row r="14">
@@ -5140,19 +5140,19 @@
         <v>341872</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>314488</v>
+        <v>317758</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>366655</v>
+        <v>368367</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4982629099015259</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4583523120432272</v>
+        <v>0.4631172455895919</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5343829001947282</v>
+        <v>0.5368777102183322</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>353</v>
@@ -5161,19 +5161,19 @@
         <v>376981</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>351839</v>
+        <v>350530</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>401672</v>
+        <v>401028</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6187428503851852</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5774766233123948</v>
+        <v>0.5753294953970405</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6592687110295545</v>
+        <v>0.6582114584645644</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>685</v>
@@ -5182,19 +5182,19 @@
         <v>718854</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>680856</v>
+        <v>682579</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>753557</v>
+        <v>757646</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5549287125116611</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5255961479298595</v>
+        <v>0.5269263905877589</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5817186670381227</v>
+        <v>0.5848749804314317</v>
       </c>
     </row>
     <row r="15">
@@ -5286,19 +5286,19 @@
         <v>16938</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10313</v>
+        <v>10458</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26614</v>
+        <v>26914</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02484133009808186</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01512424686294932</v>
+        <v>0.01533717997923742</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03903094154228266</v>
+        <v>0.03947116964600841</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -5307,19 +5307,19 @@
         <v>14708</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8650</v>
+        <v>7984</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24609</v>
+        <v>24264</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02072440122239998</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01218850644583575</v>
+        <v>0.01125032746040211</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03467657553109516</v>
+        <v>0.03419036211888524</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>31</v>
@@ -5328,19 +5328,19 @@
         <v>31646</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21651</v>
+        <v>21640</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>43772</v>
+        <v>44616</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02274172843688069</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01555905581946221</v>
+        <v>0.01555083137862664</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03145574424841856</v>
+        <v>0.03206249767613645</v>
       </c>
     </row>
     <row r="17">
@@ -5357,19 +5357,19 @@
         <v>24067</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15501</v>
+        <v>15579</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>35986</v>
+        <v>35068</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0352958419528062</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02273267976649285</v>
+        <v>0.02284743815749429</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05277632861836436</v>
+        <v>0.05142993432791804</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -5378,19 +5378,19 @@
         <v>22193</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>14082</v>
+        <v>13674</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>34969</v>
+        <v>34586</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03127154076724843</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01984329892130493</v>
+        <v>0.01926860151717849</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04927507146043691</v>
+        <v>0.04873476258214463</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>42</v>
@@ -5399,19 +5399,19 @@
         <v>46259</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>33396</v>
+        <v>33803</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>62233</v>
+        <v>62728</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0332434796921219</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02399960546520783</v>
+        <v>0.02429197605765325</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0447227283423756</v>
+        <v>0.04507833378241635</v>
       </c>
     </row>
     <row r="18">
@@ -5428,19 +5428,19 @@
         <v>78625</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>63786</v>
+        <v>61964</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>96573</v>
+        <v>95961</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1153088215297298</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09354689691005609</v>
+        <v>0.09087402831867915</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.141630824063589</v>
+        <v>0.1407341269864699</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>52</v>
@@ -5449,19 +5449,19 @@
         <v>54374</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>41359</v>
+        <v>41749</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>71215</v>
+        <v>69543</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07661869995163421</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05827916164656106</v>
+        <v>0.05882875772135924</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1003484807735109</v>
+        <v>0.0979927813915089</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>130</v>
@@ -5470,19 +5470,19 @@
         <v>132999</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>108397</v>
+        <v>111125</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>155053</v>
+        <v>155306</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.09557716086945423</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07789759602198282</v>
+        <v>0.07985758904332153</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1114261798116727</v>
+        <v>0.1116078285542688</v>
       </c>
     </row>
     <row r="19">
@@ -5499,19 +5499,19 @@
         <v>187543</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>164146</v>
+        <v>165952</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>212875</v>
+        <v>213645</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2750455664851386</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2407310777264353</v>
+        <v>0.2433800708286648</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3121958321489091</v>
+        <v>0.3133260672354153</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>133</v>
@@ -5520,19 +5520,19 @@
         <v>145724</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>122686</v>
+        <v>124635</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>169456</v>
+        <v>168432</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2053399683068658</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1728769636274061</v>
+        <v>0.1756237577042705</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2387806916882055</v>
+        <v>0.2373377014097798</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>311</v>
@@ -5541,19 +5541,19 @@
         <v>333267</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>301546</v>
+        <v>301993</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>365922</v>
+        <v>371227</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2394962543280559</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2167005186466728</v>
+        <v>0.2170217362698623</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2629633754652157</v>
+        <v>0.2667755849960052</v>
       </c>
     </row>
     <row r="20">
@@ -5570,19 +5570,19 @@
         <v>374689</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>346483</v>
+        <v>348877</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>400432</v>
+        <v>400730</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5495084399342436</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5081410883920707</v>
+        <v>0.5116519791438694</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5872609861351304</v>
+        <v>0.5876981414106132</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>448</v>
@@ -5591,19 +5591,19 @@
         <v>472674</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>448248</v>
+        <v>446647</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>497859</v>
+        <v>498930</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6660453897518516</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6316264889069944</v>
+        <v>0.6293708780539456</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7015338747464592</v>
+        <v>0.7030432479076864</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>803</v>
@@ -5612,19 +5612,19 @@
         <v>847363</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>811321</v>
+        <v>808362</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>885366</v>
+        <v>885411</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6089413766734874</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5830403760275997</v>
+        <v>0.580914081587518</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6362518908827429</v>
+        <v>0.6362842271231118</v>
       </c>
     </row>
     <row r="21">
@@ -5716,19 +5716,19 @@
         <v>8241</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3058</v>
+        <v>3288</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16958</v>
+        <v>16908</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01345338525106073</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00499132275288405</v>
+        <v>0.005366905038731194</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02768315239184544</v>
+        <v>0.02760135908098936</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -5737,19 +5737,19 @@
         <v>9215</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4034</v>
+        <v>3998</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18732</v>
+        <v>19836</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01498081372578905</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.006557496414142471</v>
+        <v>0.006499414103638573</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03045228410195036</v>
+        <v>0.032247143311233</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>14</v>
@@ -5758,19 +5758,19 @@
         <v>17456</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10060</v>
+        <v>10082</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>30642</v>
+        <v>29858</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0142187008562951</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00819413151830437</v>
+        <v>0.008212133080586829</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02495882398177809</v>
+        <v>0.02432020491354164</v>
       </c>
     </row>
     <row r="23">
@@ -5787,19 +5787,19 @@
         <v>15338</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8714</v>
+        <v>8867</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>24149</v>
+        <v>24373</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02503917314070866</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01422499365301956</v>
+        <v>0.01447524642405727</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03942282827396252</v>
+        <v>0.03978904812118305</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -5808,19 +5808,19 @@
         <v>6450</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2171</v>
+        <v>2341</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>14846</v>
+        <v>16006</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01048532288582448</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.003529633055244498</v>
+        <v>0.003805007243123594</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02413394726333338</v>
+        <v>0.02602098702397349</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>20</v>
@@ -5829,19 +5829,19 @@
         <v>21788</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>14129</v>
+        <v>13590</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>32986</v>
+        <v>34576</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01774698964367902</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01150845857682439</v>
+        <v>0.01106969055382166</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0268682651275691</v>
+        <v>0.02816312747011856</v>
       </c>
     </row>
     <row r="24">
@@ -5858,19 +5858,19 @@
         <v>56770</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>42064</v>
+        <v>42677</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>73448</v>
+        <v>74125</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09267682985875038</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06866864126415233</v>
+        <v>0.06966941753721795</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1199023158039828</v>
+        <v>0.1210080509387031</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>37</v>
@@ -5879,19 +5879,19 @@
         <v>41658</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>29939</v>
+        <v>30304</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>56709</v>
+        <v>55725</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06772061360929135</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04867075847939866</v>
+        <v>0.0492634802910587</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09218968620055064</v>
+        <v>0.09058872451113506</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>86</v>
@@ -5900,19 +5900,19 @@
         <v>98428</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>79989</v>
+        <v>79749</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>119349</v>
+        <v>122312</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08017255744317191</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06515330050720458</v>
+        <v>0.06495782542490429</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09721350985981934</v>
+        <v>0.09962658411297862</v>
       </c>
     </row>
     <row r="25">
@@ -5929,19 +5929,19 @@
         <v>169638</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>144292</v>
+        <v>146412</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>191033</v>
+        <v>195125</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2769307218509408</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2355548317597051</v>
+        <v>0.2390147225032645</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3118587196888803</v>
+        <v>0.3185377650401946</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>106</v>
@@ -5950,19 +5950,19 @@
         <v>123547</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>102204</v>
+        <v>102728</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>144379</v>
+        <v>146691</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2008445833756901</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1661477967285249</v>
+        <v>0.1669997263984377</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.234710323470689</v>
+        <v>0.2384687077555903</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>257</v>
@@ -5971,19 +5971,19 @@
         <v>293185</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>261971</v>
+        <v>262412</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>324215</v>
+        <v>327404</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2388078833150876</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2133829840616065</v>
+        <v>0.213742209632358</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.264082413194153</v>
+        <v>0.2666798221366103</v>
       </c>
     </row>
     <row r="26">
@@ -6000,19 +6000,19 @@
         <v>362577</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>336971</v>
+        <v>337145</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>388573</v>
+        <v>387480</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5918998898985395</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5500997719493966</v>
+        <v>0.5503830500427884</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6343386179738149</v>
+        <v>0.6325550573002726</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>383</v>
@@ -6021,19 +6021,19 @@
         <v>434268</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>410922</v>
+        <v>409692</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>457864</v>
+        <v>457233</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7059686664034049</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6680156075894167</v>
+        <v>0.6660163832341219</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7443276185073295</v>
+        <v>0.7433012117571931</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>707</v>
@@ -6042,19 +6042,19 @@
         <v>796845</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>762852</v>
+        <v>759838</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>831092</v>
+        <v>831044</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6490538687417663</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6213650113607622</v>
+        <v>0.6189101445662477</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.676948442807517</v>
+        <v>0.676909306239703</v>
       </c>
     </row>
     <row r="27">
@@ -6146,19 +6146,19 @@
         <v>3963</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>994</v>
+        <v>974</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>9865</v>
+        <v>9877</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.009229614187125658</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.002315575799614385</v>
+        <v>0.002267300570872709</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0229722615837822</v>
+        <v>0.02300058484520937</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>5</v>
@@ -6167,19 +6167,19 @@
         <v>7113</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2919</v>
+        <v>2271</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>18009</v>
+        <v>17839</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01588375656671026</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.006518901373888787</v>
+        <v>0.005071078138156902</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04021719472887828</v>
+        <v>0.03983596086004789</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>9</v>
@@ -6188,19 +6188,19 @@
         <v>11076</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5519</v>
+        <v>5248</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>21319</v>
+        <v>21577</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01262636054897884</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.006290923535088226</v>
+        <v>0.005982209347936402</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02430293534625377</v>
+        <v>0.02459699963331985</v>
       </c>
     </row>
     <row r="29">
@@ -6217,19 +6217,19 @@
         <v>9438</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4132</v>
+        <v>4117</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>18815</v>
+        <v>17966</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02197898498987937</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.009622225458539052</v>
+        <v>0.009588078533312215</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04381479259086139</v>
+        <v>0.04183720911566324</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>9</v>
@@ -6238,19 +6238,19 @@
         <v>12808</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5709</v>
+        <v>5768</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>23642</v>
+        <v>22987</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02860267308010523</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01274931839538938</v>
+        <v>0.01288174503414033</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05279611667015708</v>
+        <v>0.05133394149552042</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>17</v>
@@ -6259,19 +6259,19 @@
         <v>22247</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>12958</v>
+        <v>13477</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>35275</v>
+        <v>34518</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02536018532180396</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01477182041140224</v>
+        <v>0.01536330321794497</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04021180117134898</v>
+        <v>0.03934914371089546</v>
       </c>
     </row>
     <row r="30">
@@ -6288,19 +6288,19 @@
         <v>31176</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>21850</v>
+        <v>21977</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>42867</v>
+        <v>42777</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.07259979713809307</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.05088180171674051</v>
+        <v>0.05117708096477554</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.09982361435701501</v>
+        <v>0.09961335643142256</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>32</v>
@@ -6309,19 +6309,19 @@
         <v>35400</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>25588</v>
+        <v>25149</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>50453</v>
+        <v>48831</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.07905283932116167</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05714051745076246</v>
+        <v>0.05616051327823534</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1126684311703425</v>
+        <v>0.1090458655012339</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>62</v>
@@ -6330,19 +6330,19 @@
         <v>66576</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>53398</v>
+        <v>51671</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>85607</v>
+        <v>83306</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.07589388769219264</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.06087143313729459</v>
+        <v>0.05890196007448891</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.09758845979881133</v>
+        <v>0.09496533354597253</v>
       </c>
     </row>
     <row r="31">
@@ -6359,19 +6359,19 @@
         <v>76887</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>60936</v>
+        <v>61021</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>93762</v>
+        <v>95977</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1790452664026526</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1418998678410262</v>
+        <v>0.1420980759632834</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.218341139410946</v>
+        <v>0.2234993999358562</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>74</v>
@@ -6380,19 +6380,19 @@
         <v>82223</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>65072</v>
+        <v>65502</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>99383</v>
+        <v>99635</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1836153334730639</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1453156197310864</v>
+        <v>0.1462755152304875</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2219355259107008</v>
+        <v>0.222498157470515</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>143</v>
@@ -6401,19 +6401,19 @@
         <v>159110</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>137212</v>
+        <v>136061</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>186265</v>
+        <v>184495</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1813781528678523</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1564150011479628</v>
+        <v>0.155103540438361</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2123334244407218</v>
+        <v>0.2103159355044542</v>
       </c>
     </row>
     <row r="32">
@@ -6430,19 +6430,19 @@
         <v>307963</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>287638</v>
+        <v>288111</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>326156</v>
+        <v>327426</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7171463372822492</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.669815765944185</v>
+        <v>0.670915725174198</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7595098382183935</v>
+        <v>0.7624673473656033</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>286</v>
@@ -6451,19 +6451,19 @@
         <v>310256</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>287453</v>
+        <v>288902</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>330970</v>
+        <v>331187</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.692845397558959</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6419232938967834</v>
+        <v>0.6451595973390819</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7391024124971175</v>
+        <v>0.7395867160238616</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>568</v>
@@ -6472,19 +6472,19 @@
         <v>618220</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>588680</v>
+        <v>588834</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>648157</v>
+        <v>644219</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7047414135691723</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6710678001889254</v>
+        <v>0.6712430697873651</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.738868312195273</v>
+        <v>0.7343799287458519</v>
       </c>
     </row>
     <row r="33">
@@ -6576,19 +6576,19 @@
         <v>4011</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>12175</v>
+        <v>12008</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01299009564961308</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.003109607585992378</v>
+        <v>0.003084222663052776</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.0394273092301379</v>
+        <v>0.03888693625505654</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2</v>
@@ -6600,7 +6600,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>6844</v>
+        <v>6884</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.005541761601177471</v>
@@ -6609,7 +6609,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01933484729920707</v>
+        <v>0.0194477557687442</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>5</v>
@@ -6618,19 +6618,19 @@
         <v>5973</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1957</v>
+        <v>2021</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>13892</v>
+        <v>13967</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.009012001672165962</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.002953099285800883</v>
+        <v>0.003049392802976574</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02095993784923639</v>
+        <v>0.02107317467995262</v>
       </c>
     </row>
     <row r="35">
@@ -6647,19 +6647,19 @@
         <v>5864</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1967</v>
+        <v>1993</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>11999</v>
+        <v>12631</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01898833333932708</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.006370290236703415</v>
+        <v>0.006454981816846749</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03885711893363729</v>
+        <v>0.04090364645840211</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>7</v>
@@ -6668,19 +6668,19 @@
         <v>6924</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>2802</v>
+        <v>2940</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>12969</v>
+        <v>13219</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01955941269542473</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.007916475566001885</v>
+        <v>0.008305268225862012</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.03663489481680376</v>
+        <v>0.03734169602225713</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>13</v>
@@ -6689,19 +6689,19 @@
         <v>12788</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>7044</v>
+        <v>7151</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>21739</v>
+        <v>21781</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01929334212818686</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01062795078881762</v>
+        <v>0.01078960743459663</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03279895916376083</v>
+        <v>0.03286219384603205</v>
       </c>
     </row>
     <row r="36">
@@ -6718,19 +6718,19 @@
         <v>17600</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>10531</v>
+        <v>10412</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>27373</v>
+        <v>27386</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.05699500529196995</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03410280657938197</v>
+        <v>0.03371621639266839</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.08864187691318247</v>
+        <v>0.08868369425617659</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>11</v>
@@ -6739,19 +6739,19 @@
         <v>11757</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>5910</v>
+        <v>6031</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>19803</v>
+        <v>20079</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03321089613550336</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01669405862524523</v>
+        <v>0.0170379341186902</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05594264031320752</v>
+        <v>0.05672129721960479</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>28</v>
@@ -6760,19 +6760,19 @@
         <v>29357</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>19925</v>
+        <v>19932</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>41090</v>
+        <v>41259</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.04429210813684614</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03006155695872576</v>
+        <v>0.03007218963003324</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.0619950009453894</v>
+        <v>0.06224955797893206</v>
       </c>
     </row>
     <row r="37">
@@ -6789,19 +6789,19 @@
         <v>41331</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>29649</v>
+        <v>30438</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>55953</v>
+        <v>54880</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1338427786515513</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.09601217575937049</v>
+        <v>0.0985672438909681</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1811914044783319</v>
+        <v>0.1777179428300224</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>45</v>
@@ -6810,19 +6810,19 @@
         <v>45576</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>33884</v>
+        <v>33978</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>60314</v>
+        <v>58611</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1287475455484591</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.09571943630165854</v>
+        <v>0.09598458345384121</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1703809971619571</v>
+        <v>0.165569461573349</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>82</v>
@@ -6831,19 +6831,19 @@
         <v>86907</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>69412</v>
+        <v>70019</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>106713</v>
+        <v>106583</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1311214565425681</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1047261009656634</v>
+        <v>0.1056410721873008</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1610027891619261</v>
+        <v>0.1608075206046167</v>
       </c>
     </row>
     <row r="38">
@@ -6860,19 +6860,19 @@
         <v>239997</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>223446</v>
+        <v>223753</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>254751</v>
+        <v>254869</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.7771837870675385</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7235847552248968</v>
+        <v>0.7245779974027865</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8249613600409101</v>
+        <v>0.825343240527751</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>279</v>
@@ -6881,19 +6881,19 @@
         <v>287778</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>272915</v>
+        <v>271719</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>302441</v>
+        <v>301820</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8129403840194354</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.7709547975840113</v>
+        <v>0.7675771994820967</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8543620601743988</v>
+        <v>0.8526077947560928</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>497</v>
@@ -6902,19 +6902,19 @@
         <v>527775</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>505431</v>
+        <v>506058</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>548430</v>
+        <v>548014</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.796281091520233</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.7625696709463613</v>
+        <v>0.763514690512707</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8274447558665962</v>
+        <v>0.8268158347109232</v>
       </c>
     </row>
     <row r="39">
@@ -7009,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>6203</v>
+        <v>5979</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.004693563524385842</v>
@@ -7018,7 +7018,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02493443728442388</v>
+        <v>0.02403378133135929</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2</v>
@@ -7030,7 +7030,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>7543</v>
+        <v>7533</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.005653774763344745</v>
@@ -7039,7 +7039,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01960027294118748</v>
+        <v>0.01957379955375923</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3</v>
@@ -7051,16 +7051,16 @@
         <v>1041</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>9020</v>
+        <v>9274</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.00527677807386273</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.001642399321529107</v>
+        <v>0.001642725532316773</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01423485978543313</v>
+        <v>0.01463527294422573</v>
       </c>
     </row>
     <row r="41">
@@ -7124,19 +7124,19 @@
         <v>9937</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4354</v>
+        <v>4335</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>19989</v>
+        <v>18845</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.0399420298342975</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.01750249884622998</v>
+        <v>0.01742357771820948</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.0803487877198916</v>
+        <v>0.07574886791912835</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>16</v>
@@ -7145,19 +7145,19 @@
         <v>17744</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>9987</v>
+        <v>10839</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>27968</v>
+        <v>27350</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.04610316083438663</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.02594896607811372</v>
+        <v>0.02816315848313454</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.07266914447664775</v>
+        <v>0.07106298993899102</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>24</v>
@@ -7166,19 +7166,19 @@
         <v>27680</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>18747</v>
+        <v>17812</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>41156</v>
+        <v>42431</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.04368418686672405</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.02958621185264006</v>
+        <v>0.02811073429850006</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.06495095223445095</v>
+        <v>0.06696257320848334</v>
       </c>
     </row>
     <row r="43">
@@ -7195,19 +7195,19 @@
         <v>34887</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>23559</v>
+        <v>25188</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>47870</v>
+        <v>48559</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1402326566594874</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.09469712555894268</v>
+        <v>0.1012462342806345</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1924178893079113</v>
+        <v>0.1951853541227406</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>41</v>
@@ -7216,19 +7216,19 @@
         <v>46372</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>33272</v>
+        <v>34183</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>61060</v>
+        <v>60168</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1204879657705081</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.08645083133989299</v>
+        <v>0.08881713417733991</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1586530534709714</v>
+        <v>0.1563334629936616</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>71</v>
@@ -7237,19 +7237,19 @@
         <v>81259</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>64294</v>
+        <v>65503</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>101480</v>
+        <v>99774</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1282400965496288</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1014655529459996</v>
+        <v>0.1033746428477826</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1601510521446015</v>
+        <v>0.1574599396739161</v>
       </c>
     </row>
     <row r="44">
@@ -7266,19 +7266,19 @@
         <v>202790</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>188814</v>
+        <v>188669</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>216040</v>
+        <v>215474</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.8151317499818292</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.7589530780116511</v>
+        <v>0.7583724352999763</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.8683911073338942</v>
+        <v>0.8661166539548196</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>288</v>
@@ -7287,19 +7287,19 @@
         <v>318576</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>303131</v>
+        <v>303076</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>333043</v>
+        <v>333767</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.8277550986317606</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.7876261982791726</v>
+        <v>0.7874826473168094</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.8653467747092789</v>
+        <v>0.8672257019052548</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>470</v>
@@ -7308,19 +7308,19 @@
         <v>521366</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>497426</v>
+        <v>500492</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>539438</v>
+        <v>541177</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.8227989385097845</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.7850181700496014</v>
+        <v>0.7898567572216809</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.8513202112120745</v>
+        <v>0.8540641562492901</v>
       </c>
     </row>
     <row r="45">
@@ -7412,19 +7412,19 @@
         <v>74743</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>59687</v>
+        <v>59768</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>94800</v>
+        <v>94181</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.02184379388865649</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01744367608131352</v>
+        <v>0.01746722024397955</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.02770546825280677</v>
+        <v>0.02752445949910438</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>61</v>
@@ -7433,19 +7433,19 @@
         <v>67432</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>51554</v>
+        <v>53305</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>87900</v>
+        <v>88132</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01898962997665723</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01451818327954864</v>
+        <v>0.0150113318220321</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02475365024503736</v>
+        <v>0.02481902789020812</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>134</v>
@@ -7454,19 +7454,19 @@
         <v>142175</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>120575</v>
+        <v>119345</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>166946</v>
+        <v>166548</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.02039025756840052</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.0172925114285393</v>
+        <v>0.01711603306087681</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02394279634965708</v>
+        <v>0.02388581907811686</v>
       </c>
     </row>
     <row r="47">
@@ -7483,19 +7483,19 @@
         <v>108755</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>89080</v>
+        <v>88631</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>130042</v>
+        <v>131024</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.03178387573196234</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.02603371990604366</v>
+        <v>0.0259024825660238</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.03800483702118101</v>
+        <v>0.03829191367591906</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>86</v>
@@ -7504,19 +7504,19 @@
         <v>95464</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>76713</v>
+        <v>76083</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>117636</v>
+        <v>119009</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.02688379346315078</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.02160337385014621</v>
+        <v>0.02142609444253844</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.03312781901691811</v>
+        <v>0.03351459969712207</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>190</v>
@@ -7525,19 +7525,19 @@
         <v>204219</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>178591</v>
+        <v>178051</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>239090</v>
+        <v>235027</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.02928841724759981</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.02561295264350595</v>
+        <v>0.02553546336353774</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.03428954644279029</v>
+        <v>0.03370679977363276</v>
       </c>
     </row>
     <row r="48">
@@ -7554,19 +7554,19 @@
         <v>383938</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>348232</v>
+        <v>348622</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>424147</v>
+        <v>425715</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.112206172501739</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1017709965300006</v>
+        <v>0.1018850023735507</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1239573992776465</v>
+        <v>0.1244155753563673</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>255</v>
@@ -7575,19 +7575,19 @@
         <v>272217</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>240594</v>
+        <v>242197</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>303414</v>
+        <v>306606</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.07665996755818114</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.06775427243804871</v>
+        <v>0.06820574060337559</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.08544531813229046</v>
+        <v>0.0863442872729825</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>623</v>
@@ -7596,19 +7596,19 @@
         <v>656155</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>612392</v>
+        <v>604482</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>711167</v>
+        <v>706429</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.09410360322899812</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.08782717646634663</v>
+        <v>0.08669278020530029</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1019932169209782</v>
+        <v>0.1013137236087769</v>
       </c>
     </row>
     <row r="49">
@@ -7625,19 +7625,19 @@
         <v>811341</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>759357</v>
+        <v>755053</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>865802</v>
+        <v>865380</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2371151076932112</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2219226489058752</v>
+        <v>0.2206650135277195</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.253031507599292</v>
+        <v>0.2529080647095495</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>646</v>
@@ -7646,19 +7646,19 @@
         <v>704059</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>658029</v>
+        <v>656819</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>755450</v>
+        <v>754986</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1982721362077393</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1853094589436563</v>
+        <v>0.1849688940686354</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.212744524978968</v>
+        <v>0.2126140002848042</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>1405</v>
@@ -7667,19 +7667,19 @@
         <v>1515400</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>1446251</v>
+        <v>1442335</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>1586830</v>
+        <v>1589631</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.217333598438106</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2074164843859816</v>
+        <v>0.2068549050411781</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.227577965571952</v>
+        <v>0.2279796695310472</v>
       </c>
     </row>
     <row r="50">
@@ -7696,19 +7696,19 @@
         <v>2042940</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>1984872</v>
+        <v>1981039</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>2107256</v>
+        <v>2103403</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.5970510501844309</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.5800808291932795</v>
+        <v>0.5789605315911199</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.6158476453109649</v>
+        <v>0.6147215280418531</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>2244</v>
@@ -7717,19 +7717,19 @@
         <v>2411801</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>2355800</v>
+        <v>2356129</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>2473440</v>
+        <v>2466725</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.6791944727942716</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.6634238869659126</v>
+        <v>0.6635166946153882</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.696553069635</v>
+        <v>0.6946619777556908</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>4144</v>
@@ -7738,19 +7738,19 @@
         <v>4454740</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>4372989</v>
+        <v>4371356</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>4532924</v>
+        <v>4537576</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.6388841235168955</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.6271595519341167</v>
+        <v>0.6269254669229264</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.6500969820032708</v>
+        <v>0.6507641196440236</v>
       </c>
     </row>
     <row r="51">
@@ -8085,19 +8085,19 @@
         <v>22065</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13823</v>
+        <v>13628</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31677</v>
+        <v>33652</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05272779083662963</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03303237717032019</v>
+        <v>0.03256581789235381</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07569714234789793</v>
+        <v>0.08041662768350281</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -8106,19 +8106,19 @@
         <v>23077</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14965</v>
+        <v>14817</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33606</v>
+        <v>35646</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05845863575095223</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03790895501734313</v>
+        <v>0.0375351665008927</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08513020175449562</v>
+        <v>0.09029689223659022</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>44</v>
@@ -8127,19 +8127,19 @@
         <v>45142</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33622</v>
+        <v>33439</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>59836</v>
+        <v>60971</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05550964707319068</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04134401042624892</v>
+        <v>0.04111888771203374</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07357743009646735</v>
+        <v>0.07497304199683699</v>
       </c>
     </row>
     <row r="5">
@@ -8156,19 +8156,19 @@
         <v>21270</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13419</v>
+        <v>12802</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>31921</v>
+        <v>31617</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05082822167990251</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03206676377816177</v>
+        <v>0.03059216051044767</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07627828274651335</v>
+        <v>0.07555383504059798</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>30</v>
@@ -8177,19 +8177,19 @@
         <v>29857</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20174</v>
+        <v>20159</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>40084</v>
+        <v>41311</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07563346970403438</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05110537735021591</v>
+        <v>0.05106745387841648</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1015403247247565</v>
+        <v>0.1046496122631109</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>50</v>
@@ -8198,19 +8198,19 @@
         <v>51127</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>38919</v>
+        <v>39734</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>65172</v>
+        <v>66807</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06286913972026298</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04785753304018025</v>
+        <v>0.04885880498861982</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08013870886761316</v>
+        <v>0.08214939560591766</v>
       </c>
     </row>
     <row r="6">
@@ -8227,19 +8227,19 @@
         <v>84124</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>68632</v>
+        <v>68470</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>101206</v>
+        <v>101274</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2010250642933148</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1640037124017826</v>
+        <v>0.1636171414089936</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2418430492872843</v>
+        <v>0.2420064057615283</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>83</v>
@@ -8248,19 +8248,19 @@
         <v>80561</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>65558</v>
+        <v>64375</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>96742</v>
+        <v>96313</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2040753468233003</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.166070064868497</v>
+        <v>0.1630731284213632</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2450656856972089</v>
+        <v>0.2439788403097178</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>160</v>
@@ -8269,19 +8269,19 @@
         <v>164685</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>142067</v>
+        <v>142960</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>187705</v>
+        <v>189185</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2025057268493903</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.174694103351135</v>
+        <v>0.1757912261579596</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2308125993821951</v>
+        <v>0.2326323325781282</v>
       </c>
     </row>
     <row r="7">
@@ -8298,19 +8298,19 @@
         <v>138678</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>118550</v>
+        <v>120476</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>158215</v>
+        <v>158045</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3313877263630635</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2832909175103095</v>
+        <v>0.2878926085305936</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3780734626157691</v>
+        <v>0.3776680000330371</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>129</v>
@@ -8319,19 +8319,19 @@
         <v>125315</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>108417</v>
+        <v>108575</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>144455</v>
+        <v>144823</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3174479652546845</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2746421936671146</v>
+        <v>0.2750418291573263</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3659314705103133</v>
+        <v>0.3668654439548753</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>261</v>
@@ -8340,19 +8340,19 @@
         <v>263993</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>236655</v>
+        <v>239144</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>291914</v>
+        <v>292603</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3246211130703883</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2910049110830367</v>
+        <v>0.2940653494640185</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3589536157459384</v>
+        <v>0.3598014585925184</v>
       </c>
     </row>
     <row r="8">
@@ -8369,19 +8369,19 @@
         <v>152338</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>131775</v>
+        <v>132540</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>172237</v>
+        <v>172351</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3640311968270896</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3148930848651839</v>
+        <v>0.3167203413332636</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4115816534576889</v>
+        <v>0.4118535469966753</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>138</v>
@@ -8390,19 +8390,19 @@
         <v>135949</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>118899</v>
+        <v>116705</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>156927</v>
+        <v>156125</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3443845824670286</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3011944555295745</v>
+        <v>0.2956350950497926</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3975266817024151</v>
+        <v>0.3954953388343593</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>280</v>
@@ -8411,19 +8411,19 @@
         <v>288287</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>261331</v>
+        <v>260210</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>316187</v>
+        <v>315699</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3544943732867677</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3213469458435533</v>
+        <v>0.3199689551603287</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.388802052525044</v>
+        <v>0.3882019996391446</v>
       </c>
     </row>
     <row r="9">
@@ -8515,19 +8515,19 @@
         <v>17259</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9933</v>
+        <v>9978</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27537</v>
+        <v>27369</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02927733354330507</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01684985204816948</v>
+        <v>0.01692520627672738</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04671181240041405</v>
+        <v>0.04642701409961575</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -8536,19 +8536,19 @@
         <v>12576</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7100</v>
+        <v>7087</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20367</v>
+        <v>20860</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02231630962737122</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01259970909441786</v>
+        <v>0.01257526845288716</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03614130026671088</v>
+        <v>0.03701581637309101</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>29</v>
@@ -8557,19 +8557,19 @@
         <v>29836</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20305</v>
+        <v>21071</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41748</v>
+        <v>43069</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02587521009248033</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0176095998503386</v>
+        <v>0.01827421894982616</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03620625384166937</v>
+        <v>0.03735236918134138</v>
       </c>
     </row>
     <row r="11">
@@ -8586,19 +8586,19 @@
         <v>37940</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>28346</v>
+        <v>27029</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>52712</v>
+        <v>52294</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06435884641534721</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04808365063122713</v>
+        <v>0.04585015598022539</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08941616707702137</v>
+        <v>0.08870761626234819</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>29</v>
@@ -8607,19 +8607,19 @@
         <v>28336</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>19536</v>
+        <v>20401</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>39325</v>
+        <v>39068</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05028222916046688</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03466574438661985</v>
+        <v>0.0362006742839126</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06978107702113329</v>
+        <v>0.06932523213408996</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>65</v>
@@ -8628,19 +8628,19 @@
         <v>66277</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>52406</v>
+        <v>51819</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>83617</v>
+        <v>82696</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05747905541771955</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04544919495418474</v>
+        <v>0.04494047147703296</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07251770597534908</v>
+        <v>0.0717185315010372</v>
       </c>
     </row>
     <row r="12">
@@ -8657,19 +8657,19 @@
         <v>94634</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>77016</v>
+        <v>78098</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>113404</v>
+        <v>114456</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1605288507230734</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1306426390432778</v>
+        <v>0.1324780681250542</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1923694283674999</v>
+        <v>0.1941528946341927</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>101</v>
@@ -8678,19 +8678,19 @@
         <v>98761</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>82329</v>
+        <v>82575</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>118246</v>
+        <v>116771</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.175249408391995</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1460919873829016</v>
+        <v>0.1465276178111713</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2098248343109681</v>
+        <v>0.2072090339978193</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>189</v>
@@ -8699,19 +8699,19 @@
         <v>193395</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>170607</v>
+        <v>169582</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>220794</v>
+        <v>220830</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1677233604761602</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.147960481062472</v>
+        <v>0.1470713647726686</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.191485820739775</v>
+        <v>0.1915166271560293</v>
       </c>
     </row>
     <row r="13">
@@ -8728,19 +8728,19 @@
         <v>198028</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>177046</v>
+        <v>175187</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>221995</v>
+        <v>221098</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3359171134936034</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3003257910776427</v>
+        <v>0.2971732501179763</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3765743861545629</v>
+        <v>0.3750517888293287</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>190</v>
@@ -8749,19 +8749,19 @@
         <v>183228</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>162505</v>
+        <v>163564</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>205369</v>
+        <v>206161</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.325134421228355</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2883627029036959</v>
+        <v>0.2902415027413878</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3644239201972008</v>
+        <v>0.3658290999476356</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>383</v>
@@ -8770,19 +8770,19 @@
         <v>381255</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>350747</v>
+        <v>350022</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>415106</v>
+        <v>413435</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3306471919042438</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3041888669296637</v>
+        <v>0.3035603393738463</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3600047834071383</v>
+        <v>0.3585552222341457</v>
       </c>
     </row>
     <row r="14">
@@ -8799,19 +8799,19 @@
         <v>241652</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>216054</v>
+        <v>219997</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>263274</v>
+        <v>268479</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4099178558246709</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3664951870977493</v>
+        <v>0.3731839693421764</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4465949246758904</v>
+        <v>0.4554244327250924</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>246</v>
@@ -8820,19 +8820,19 @@
         <v>240643</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>216959</v>
+        <v>218885</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>261985</v>
+        <v>265041</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4270176315918119</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3849899930949255</v>
+        <v>0.3884076356024144</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4648875981857481</v>
+        <v>0.4703103135148878</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>479</v>
@@ -8841,19 +8841,19 @@
         <v>482295</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>449497</v>
+        <v>451283</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>515195</v>
+        <v>516291</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4182751821093962</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3898305730753956</v>
+        <v>0.391379977959587</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4468075899477288</v>
+        <v>0.4477585370590097</v>
       </c>
     </row>
     <row r="15">
@@ -8945,19 +8945,19 @@
         <v>14795</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8833</v>
+        <v>8182</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23812</v>
+        <v>23303</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02217217392139616</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01323752654566694</v>
+        <v>0.01226156453718182</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03568519586394752</v>
+        <v>0.0349220224326583</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -8966,19 +8966,19 @@
         <v>13371</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7745</v>
+        <v>7691</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21086</v>
+        <v>21908</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02026624865810893</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0117397167550013</v>
+        <v>0.01165795998570601</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03195975821363221</v>
+        <v>0.03320691985975428</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>29</v>
@@ -8987,19 +8987,19 @@
         <v>28166</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19179</v>
+        <v>19453</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>39958</v>
+        <v>40085</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02122460974421295</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01445267106442223</v>
+        <v>0.01465933455002902</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03011120782306752</v>
+        <v>0.0302064517664218</v>
       </c>
     </row>
     <row r="17">
@@ -9016,19 +9016,19 @@
         <v>34797</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>23933</v>
+        <v>24910</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>49553</v>
+        <v>48428</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05214782997701258</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03586762563544611</v>
+        <v>0.03733107459151715</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07426198742739538</v>
+        <v>0.07257654206765596</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>22</v>
@@ -9037,19 +9037,19 @@
         <v>21182</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>14131</v>
+        <v>13590</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>31352</v>
+        <v>32430</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03210572284928143</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02141809793172814</v>
+        <v>0.02059806903225333</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04752132738208367</v>
+        <v>0.04915397801970554</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>55</v>
@@ -9058,19 +9058,19 @@
         <v>55979</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>42441</v>
+        <v>42934</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>70628</v>
+        <v>71944</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04218354485244722</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03198222349114646</v>
+        <v>0.03235315146695036</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05322277376348761</v>
+        <v>0.05421468597902503</v>
       </c>
     </row>
     <row r="18">
@@ -9087,19 +9087,19 @@
         <v>101074</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>84021</v>
+        <v>84067</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>122478</v>
+        <v>119665</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.151472980094353</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1259173297937508</v>
+        <v>0.1259864644215179</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1835505062735882</v>
+        <v>0.1793341863654477</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>66</v>
@@ -9108,19 +9108,19 @@
         <v>68632</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>54568</v>
+        <v>52125</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>87358</v>
+        <v>84770</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1040261878051361</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08271003395777315</v>
+        <v>0.07900610209612917</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1324091522810922</v>
+        <v>0.1284865944072921</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>161</v>
@@ -9129,19 +9129,19 @@
         <v>169706</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>145007</v>
+        <v>145806</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>196609</v>
+        <v>198044</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1278839750260368</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.10927188074255</v>
+        <v>0.1098736444372588</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1481569271668732</v>
+        <v>0.149238729486513</v>
       </c>
     </row>
     <row r="19">
@@ -9158,19 +9158,19 @@
         <v>214743</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>190087</v>
+        <v>191289</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>239401</v>
+        <v>240082</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3218211646824453</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2848721301186278</v>
+        <v>0.2866729557955306</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3587748565918502</v>
+        <v>0.3597950509018586</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>208</v>
@@ -9179,19 +9179,19 @@
         <v>204946</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>181762</v>
+        <v>179622</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>232112</v>
+        <v>228152</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3106383538616342</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2754991177688668</v>
+        <v>0.2722547121657451</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3518150624523774</v>
+        <v>0.3458122755919133</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>416</v>
@@ -9200,19 +9200,19 @@
         <v>419688</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>386455</v>
+        <v>385100</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>454810</v>
+        <v>452672</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3162614341210584</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2912180114114577</v>
+        <v>0.2901972719202334</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3427281897449772</v>
+        <v>0.3411169393551311</v>
       </c>
     </row>
     <row r="20">
@@ -9229,19 +9229,19 @@
         <v>301865</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>276399</v>
+        <v>273434</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>327372</v>
+        <v>328264</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4523858513247929</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4142217312166505</v>
+        <v>0.4097778940270689</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4906121620681081</v>
+        <v>0.4919484964506329</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>354</v>
@@ -9250,19 +9250,19 @@
         <v>351626</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>326659</v>
+        <v>326216</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>376269</v>
+        <v>376508</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5329634868258393</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4951208717767244</v>
+        <v>0.4944491469544429</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5703148056663212</v>
+        <v>0.5706776560559723</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>640</v>
@@ -9271,19 +9271,19 @@
         <v>653491</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>615935</v>
+        <v>616988</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>691921</v>
+        <v>691778</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4924464362562446</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4641455437793331</v>
+        <v>0.464939568753311</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.521406025966743</v>
+        <v>0.5212983143133199</v>
       </c>
     </row>
     <row r="21">
@@ -9375,19 +9375,19 @@
         <v>20903</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12351</v>
+        <v>12564</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>33705</v>
+        <v>32535</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03235590579219744</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01911710927921584</v>
+        <v>0.01944700680245955</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.052170924617207</v>
+        <v>0.05036040116637483</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -9396,19 +9396,19 @@
         <v>12631</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6388</v>
+        <v>7055</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20838</v>
+        <v>20913</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0194933362139896</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009858255887513179</v>
+        <v>0.01088723453937886</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03215924949011763</v>
+        <v>0.03227480413581107</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>29</v>
@@ -9417,19 +9417,19 @@
         <v>33534</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>22304</v>
+        <v>23053</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>46988</v>
+        <v>47575</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02591509579712765</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01723647327604583</v>
+        <v>0.01781487287062289</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03631172801311374</v>
+        <v>0.03676532976743156</v>
       </c>
     </row>
     <row r="23">
@@ -9446,19 +9446,19 @@
         <v>13557</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7480</v>
+        <v>7400</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>22326</v>
+        <v>22267</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02098387762027484</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01157847855479639</v>
+        <v>0.01145464606537137</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03455846237049755</v>
+        <v>0.03446699567675294</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>13</v>
@@ -9467,19 +9467,19 @@
         <v>15745</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>8279</v>
+        <v>8857</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>26415</v>
+        <v>26836</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0242985172674129</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0127762779765895</v>
+        <v>0.01366858034623054</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04076556951173292</v>
+        <v>0.0414165237124821</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>26</v>
@@ -9488,19 +9488,19 @@
         <v>29301</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>19754</v>
+        <v>19154</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>43948</v>
+        <v>42202</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02264365205644282</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01526578242570972</v>
+        <v>0.01480209790719943</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03396248294064305</v>
+        <v>0.03261301152132803</v>
       </c>
     </row>
     <row r="24">
@@ -9517,19 +9517,19 @@
         <v>93783</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>73448</v>
+        <v>75090</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>111800</v>
+        <v>112937</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.145164008578683</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1136886304801526</v>
+        <v>0.1162293710089784</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.173052910064903</v>
+        <v>0.1748119330768979</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>56</v>
@@ -9538,19 +9538,19 @@
         <v>60370</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>45724</v>
+        <v>45784</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>76430</v>
+        <v>77693</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.09316862009707418</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0705658694929551</v>
+        <v>0.07065802220424525</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1179545617318578</v>
+        <v>0.1199035250748026</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>138</v>
@@ -9559,19 +9559,19 @@
         <v>154153</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>131144</v>
+        <v>130791</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>181195</v>
+        <v>180456</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1191278098398814</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1013463624856913</v>
+        <v>0.1010738962258899</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1400254016703726</v>
+        <v>0.1394547879894979</v>
       </c>
     </row>
     <row r="25">
@@ -9588,19 +9588,19 @@
         <v>191225</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>168441</v>
+        <v>169186</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>214594</v>
+        <v>216084</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2959926134727733</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2607248553956381</v>
+        <v>0.261878733466572</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3321644924635203</v>
+        <v>0.334471054317974</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>182</v>
@@ -9609,19 +9609,19 @@
         <v>197225</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>173815</v>
+        <v>173411</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>220686</v>
+        <v>221388</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3043753937951678</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2682480519813394</v>
+        <v>0.2676235283594685</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3405826228786857</v>
+        <v>0.3416663330824958</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>358</v>
@@ -9630,19 +9630,19 @@
         <v>388450</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>357761</v>
+        <v>354318</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>424377</v>
+        <v>423758</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3001902113911882</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2764737686288228</v>
+        <v>0.2738136112424433</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3279545375305469</v>
+        <v>0.3274755620476106</v>
       </c>
     </row>
     <row r="26">
@@ -9659,19 +9659,19 @@
         <v>326580</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>300814</v>
+        <v>297599</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>352945</v>
+        <v>354082</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5055035945360714</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4656210627269263</v>
+        <v>0.4606452708718872</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5463144976072115</v>
+        <v>0.5480739794659559</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>338</v>
@@ -9680,19 +9680,19 @@
         <v>361995</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>333932</v>
+        <v>335774</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>385905</v>
+        <v>385158</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5586641326263555</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5153556143002043</v>
+        <v>0.518197889017479</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5955650607408808</v>
+        <v>0.5944119577431701</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>632</v>
@@ -9701,19 +9701,19 @@
         <v>688574</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>652618</v>
+        <v>649758</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>728508</v>
+        <v>726461</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5321232309153598</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5043366692169809</v>
+        <v>0.5021263701469311</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5629838283578118</v>
+        <v>0.5614015450913419</v>
       </c>
     </row>
     <row r="27">
@@ -9805,19 +9805,19 @@
         <v>6837</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3071</v>
+        <v>2503</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>14818</v>
+        <v>14847</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01433749904811556</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.006439245230629802</v>
+        <v>0.005249427093299421</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03107400415058891</v>
+        <v>0.03113359387541284</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4</v>
@@ -9826,19 +9826,19 @@
         <v>5240</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>14119</v>
+        <v>13819</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01054674509124476</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.002239201101513643</v>
+        <v>0.002237951869206342</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0284168947757547</v>
+        <v>0.02781282209454411</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>10</v>
@@ -9847,19 +9847,19 @@
         <v>12077</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5989</v>
+        <v>6045</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>22758</v>
+        <v>22577</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01240322947589742</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.00615068774117347</v>
+        <v>0.00620829886133727</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02337225211004412</v>
+        <v>0.02318613375647614</v>
       </c>
     </row>
     <row r="29">
@@ -9876,19 +9876,19 @@
         <v>13141</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7343</v>
+        <v>6847</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>21895</v>
+        <v>21931</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02755617278593136</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01539807292486184</v>
+        <v>0.01435873186858059</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04591313873053771</v>
+        <v>0.04599054641152583</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>6</v>
@@ -9897,19 +9897,19 @@
         <v>7031</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2562</v>
+        <v>3127</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>14177</v>
+        <v>16010</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01415130648336197</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.005155822275501203</v>
+        <v>0.006293640055689706</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02853351869823666</v>
+        <v>0.03222234756699465</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>18</v>
@@ -9918,19 +9918,19 @@
         <v>20172</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>12987</v>
+        <v>12636</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>31656</v>
+        <v>31362</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02071620762234795</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01333757052951427</v>
+        <v>0.01297721105196355</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03251022514485143</v>
+        <v>0.03220849561494715</v>
       </c>
     </row>
     <row r="30">
@@ -9947,19 +9947,19 @@
         <v>45940</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>33113</v>
+        <v>34151</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>59227</v>
+        <v>60638</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.09633664073644617</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06943741992990431</v>
+        <v>0.07161425448926741</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1242006488282095</v>
+        <v>0.1271585471722647</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>40</v>
@@ -9968,19 +9968,19 @@
         <v>46696</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>33819</v>
+        <v>32902</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>61325</v>
+        <v>62577</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.09398456714282347</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.06806646588860292</v>
+        <v>0.06622199084375704</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1234284530912095</v>
+        <v>0.1259479645449201</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>81</v>
@@ -9989,19 +9989,19 @@
         <v>92636</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>74915</v>
+        <v>75479</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>111821</v>
+        <v>114741</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.09513647200074755</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0769370020405126</v>
+        <v>0.07751584613734579</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1148394050883845</v>
+        <v>0.1178380804440203</v>
       </c>
     </row>
     <row r="31">
@@ -10018,19 +10018,19 @@
         <v>126087</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>107857</v>
+        <v>107499</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>148013</v>
+        <v>147211</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2644056057579894</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2261782164959943</v>
+        <v>0.2254275034702813</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3103850688465107</v>
+        <v>0.3087023678883977</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>108</v>
@@ -10039,19 +10039,19 @@
         <v>124400</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>103973</v>
+        <v>105273</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>146408</v>
+        <v>145192</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2503771957815484</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.209265076523413</v>
+        <v>0.2118815339575383</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2946732936107065</v>
+        <v>0.2922253319810985</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>222</v>
@@ -10060,19 +10060,19 @@
         <v>250486</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>220037</v>
+        <v>224995</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>279176</v>
+        <v>280532</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2572474712884998</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2259762533843871</v>
+        <v>0.2310679213184434</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2867116612178532</v>
+        <v>0.2881034879535972</v>
       </c>
     </row>
     <row r="32">
@@ -10089,19 +10089,19 @@
         <v>284864</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>260323</v>
+        <v>262556</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>306449</v>
+        <v>306907</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5973640816715174</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5459000325982121</v>
+        <v>0.5505839680080555</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6426264651614574</v>
+        <v>0.643588604563864</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>275</v>
@@ -10110,19 +10110,19 @@
         <v>313482</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>290034</v>
+        <v>289229</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>337980</v>
+        <v>335319</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6309401855010214</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5837476229732071</v>
+        <v>0.5821268509854729</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6802463341236287</v>
+        <v>0.6748921428026605</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>525</v>
@@ -10131,19 +10131,19 @@
         <v>598346</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>566788</v>
+        <v>564636</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>629509</v>
+        <v>627812</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6144966196125073</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5820868910035146</v>
+        <v>0.5798764345066382</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6465001283731036</v>
+        <v>0.6447572230607507</v>
       </c>
     </row>
     <row r="33">
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>7256</v>
+        <v>7130</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0061608449880684</v>
@@ -10247,7 +10247,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02177073728898106</v>
+        <v>0.02139371689605944</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2</v>
@@ -10259,7 +10259,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>6959</v>
+        <v>7719</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.005887884434860388</v>
@@ -10268,7 +10268,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01852391859339211</v>
+        <v>0.02054645711423488</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>4</v>
@@ -10277,19 +10277,19 @@
         <v>4265</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>10447</v>
+        <v>9836</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.006016202144499224</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.001535179732734237</v>
+        <v>0.001526689141448568</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.01473649044865439</v>
+        <v>0.01387352635018589</v>
       </c>
     </row>
     <row r="35">
@@ -10306,19 +10306,19 @@
         <v>7869</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>3315</v>
+        <v>2657</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>17548</v>
+        <v>16148</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02361180813132132</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.009947894361189029</v>
+        <v>0.007973040629965121</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05265508009384491</v>
+        <v>0.04845293044538904</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>7</v>
@@ -10327,19 +10327,19 @@
         <v>7098</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>3044</v>
+        <v>3643</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>13901</v>
+        <v>15181</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01889463771031804</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0081024436751945</v>
+        <v>0.009697677477916496</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.03700396175695554</v>
+        <v>0.04041088261613891</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>13</v>
@@ -10348,19 +10348,19 @@
         <v>14967</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>8679</v>
+        <v>8574</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>25488</v>
+        <v>25448</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02111216144144094</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01224275294252577</v>
+        <v>0.01209475380765497</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03595202483131048</v>
+        <v>0.03589520418739606</v>
       </c>
     </row>
     <row r="36">
@@ -10377,19 +10377,19 @@
         <v>18814</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>11719</v>
+        <v>11151</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>28869</v>
+        <v>28522</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.05645346057784779</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03516375435973292</v>
+        <v>0.03345794835443239</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.08662370752452488</v>
+        <v>0.08558317844548152</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>25</v>
@@ -10398,19 +10398,19 @@
         <v>25935</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>17295</v>
+        <v>16663</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>36735</v>
+        <v>36184</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.06903545408079838</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.04603733430778311</v>
+        <v>0.04435418680463601</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.09778496509000387</v>
+        <v>0.09631929248546009</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>43</v>
@@ -10419,19 +10419,19 @@
         <v>44749</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>33293</v>
+        <v>33654</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>61237</v>
+        <v>59151</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.06312070716951484</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.04696121965589505</v>
+        <v>0.04747100777817651</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.08637756913697556</v>
+        <v>0.08343585852323329</v>
       </c>
     </row>
     <row r="37">
@@ -10448,19 +10448,19 @@
         <v>78222</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>63651</v>
+        <v>63538</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>94006</v>
+        <v>94436</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2347111765778393</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1909900279116801</v>
+        <v>0.1906483510082447</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2820714880747421</v>
+        <v>0.2833595895624048</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>63</v>
@@ -10469,19 +10469,19 @@
         <v>67275</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>52912</v>
+        <v>53262</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>83224</v>
+        <v>84216</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1790794522763766</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1408461272123586</v>
+        <v>0.1417793514949483</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2215350323878617</v>
+        <v>0.2241738537852759</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>140</v>
@@ -10490,19 +10490,19 @@
         <v>145497</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>124416</v>
+        <v>125775</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>168103</v>
+        <v>167827</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.205231712600171</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1754952915117993</v>
+        <v>0.1774124945010938</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2371179740070281</v>
+        <v>0.2367283087699619</v>
       </c>
     </row>
     <row r="38">
@@ -10519,19 +10519,19 @@
         <v>226312</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>209925</v>
+        <v>209317</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>243625</v>
+        <v>243112</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.6790627097249232</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.6298936975769109</v>
+        <v>0.6280690921408933</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.7310103522649019</v>
+        <v>0.7294722059872993</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>255</v>
@@ -10540,19 +10540,19 @@
         <v>273151</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>257501</v>
+        <v>255927</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>291876</v>
+        <v>290041</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.7271025714976466</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6854416287328673</v>
+        <v>0.6812542065952718</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7769454325347376</v>
+        <v>0.7720622577670593</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>476</v>
@@ -10561,19 +10561,19 @@
         <v>499463</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>475399</v>
+        <v>473885</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>522564</v>
+        <v>523291</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.704519216644374</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.6705746298574157</v>
+        <v>0.6684402489164459</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7371039918721305</v>
+        <v>0.738129471025827</v>
       </c>
     </row>
     <row r="39">
@@ -10665,19 +10665,19 @@
         <v>2598</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>7943</v>
+        <v>6831</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01014332682416637</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.003088363004389918</v>
+        <v>0.003091151766319025</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.03101617331543588</v>
+        <v>0.02667208573932686</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2</v>
@@ -10689,7 +10689,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>8392</v>
+        <v>8014</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.005973320676994473</v>
@@ -10698,7 +10698,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02097120782583638</v>
+        <v>0.02002584849630982</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>5</v>
@@ -10707,19 +10707,19 @@
         <v>4988</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1810</v>
+        <v>1705</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>11691</v>
+        <v>11127</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.007600609391078037</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.00275738910810804</v>
+        <v>0.002598033507094632</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01781435900294431</v>
+        <v>0.01695569389248907</v>
       </c>
     </row>
     <row r="41">
@@ -10739,7 +10739,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>4294</v>
+        <v>4313</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.00338420605779964</v>
@@ -10748,7 +10748,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01676547164880953</v>
+        <v>0.01684199591260236</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>4</v>
@@ -10757,19 +10757,19 @@
         <v>5827</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1276</v>
+        <v>1978</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>14663</v>
+        <v>14507</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01456097502325508</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.003188123416237938</v>
+        <v>0.0049436074052194</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.03664267105799691</v>
+        <v>0.03625202949247095</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>5</v>
@@ -10778,19 +10778,19 @@
         <v>6694</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2189</v>
+        <v>2529</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>15395</v>
+        <v>16072</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01019939152541297</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.00333578797490255</v>
+        <v>0.003853668484129262</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02345880446801338</v>
+        <v>0.02449068198568705</v>
       </c>
     </row>
     <row r="42">
@@ -10807,19 +10807,19 @@
         <v>21924</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>14750</v>
+        <v>14744</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>32170</v>
+        <v>30722</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.08560618386103278</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.0575928614031838</v>
+        <v>0.05756994097648098</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1256157166984916</v>
+        <v>0.1199601668873867</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>15</v>
@@ -10828,19 +10828,19 @@
         <v>20395</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>11719</v>
+        <v>11926</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>32729</v>
+        <v>32526</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.05096582641749741</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.02928477882437829</v>
+        <v>0.02980248083198594</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.08178859222324569</v>
+        <v>0.08128072801107855</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>40</v>
@@ -10849,19 +10849,19 @@
         <v>42319</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>30575</v>
+        <v>30830</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>57702</v>
+        <v>57879</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.06448375918071787</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.04658852175315918</v>
+        <v>0.04697821006872298</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.08792504152213222</v>
+        <v>0.08819433367650965</v>
       </c>
     </row>
     <row r="43">
@@ -10878,19 +10878,19 @@
         <v>59777</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>48262</v>
+        <v>48463</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>72790</v>
+        <v>72472</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2334123437552178</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.188449912666395</v>
+        <v>0.1892355113587843</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2842265684208651</v>
+        <v>0.2829847532984078</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>56</v>
@@ -10899,19 +10899,19 @@
         <v>73705</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>58520</v>
+        <v>56269</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>93484</v>
+        <v>91991</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1841849047605316</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1462379705020813</v>
+        <v>0.1406126422895675</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2336116353420652</v>
+        <v>0.2298812247041543</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>126</v>
@@ -10920,19 +10920,19 @@
         <v>133482</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>110615</v>
+        <v>113379</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>156288</v>
+        <v>156848</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2033952495590924</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1685516577363505</v>
+        <v>0.1727628486893688</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2381460959410392</v>
+        <v>0.238999558439258</v>
       </c>
     </row>
     <row r="44">
@@ -10949,19 +10949,19 @@
         <v>170935</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>156628</v>
+        <v>156555</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>183482</v>
+        <v>183944</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.6674539395017834</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.6115897379511634</v>
+        <v>0.6113049602144117</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.7164477436424134</v>
+        <v>0.7182500006808943</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>224</v>
@@ -10970,19 +10970,19 @@
         <v>297852</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>277075</v>
+        <v>277710</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>316350</v>
+        <v>315609</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.7443149731217215</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.692393714371914</v>
+        <v>0.6939820524671805</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.7905416684910523</v>
+        <v>0.7886888147130019</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>426</v>
@@ -10991,19 +10991,19 @@
         <v>468787</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>439834</v>
+        <v>443966</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>491850</v>
+        <v>491825</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.7143209903436988</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.6702033762362127</v>
+        <v>0.6765001294685792</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.7494641440024167</v>
+        <v>0.7494254842153265</v>
       </c>
     </row>
     <row r="45">
@@ -11095,19 +11095,19 @@
         <v>86511</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>68893</v>
+        <v>69611</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>108422</v>
+        <v>106855</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.02553795627513577</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.020337140505426</v>
+        <v>0.02054899815212028</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.03200612103429728</v>
+        <v>0.03154358814426281</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>70</v>
@@ -11116,19 +11116,19 @@
         <v>71497</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>56603</v>
+        <v>57960</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>90408</v>
+        <v>90999</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.02020437064516895</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01599537577803046</v>
+        <v>0.01637881436407349</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.02554826051461542</v>
+        <v>0.0257151624050153</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>150</v>
@@ -11137,19 +11137,19 @@
         <v>158009</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>134105</v>
+        <v>133610</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>183716</v>
+        <v>183457</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.02281296207392303</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.01936174535874962</v>
+        <v>0.01929029612627174</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.0265245362209051</v>
+        <v>0.02648711317041092</v>
       </c>
     </row>
     <row r="47">
@@ -11166,19 +11166,19 @@
         <v>129441</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>108868</v>
+        <v>107483</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>153428</v>
+        <v>153870</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.03821071613036872</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.03213761654315784</v>
+        <v>0.03172882796801684</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.04529168925787814</v>
+        <v>0.04542230134619528</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>111</v>
@@ -11187,19 +11187,19 @@
         <v>115076</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>93796</v>
+        <v>95647</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>136030</v>
+        <v>140442</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.03251912873288144</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.02650580402215062</v>
+        <v>0.02702864148403138</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.03844048740931931</v>
+        <v>0.03968728904914707</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>232</v>
@@ -11208,19 +11208,19 @@
         <v>244517</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>213832</v>
+        <v>211499</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>275736</v>
+        <v>277977</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.03530281444286083</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.03087265247242657</v>
+        <v>0.03053574445137991</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.03981022716471136</v>
+        <v>0.04013382895466112</v>
       </c>
     </row>
     <row r="48">
@@ -11237,19 +11237,19 @@
         <v>460293</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>416395</v>
+        <v>420332</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>501185</v>
+        <v>510972</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.1358777896018827</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.1229191987785317</v>
+        <v>0.1240813601443887</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1479491419629751</v>
+        <v>0.1508383206761906</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>386</v>
@@ -11258,19 +11258,19 @@
         <v>401349</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>364179</v>
+        <v>365061</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>439859</v>
+        <v>437584</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.1134166460297709</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1029127969643561</v>
+        <v>0.1031620308447116</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1242991327831924</v>
+        <v>0.1236562064647527</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>812</v>
@@ -11279,19 +11279,19 @@
         <v>861642</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>805808</v>
+        <v>810729</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>917802</v>
+        <v>921244</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.1244021163432174</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.1163409801467331</v>
+        <v>0.1170514221666128</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.1325104568448355</v>
+        <v>0.1330074202564567</v>
       </c>
     </row>
     <row r="49">
@@ -11308,19 +11308,19 @@
         <v>1006760</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>951673</v>
+        <v>951635</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>1060351</v>
+        <v>1063906</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2971939967077296</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2809323982554021</v>
+        <v>0.2809212866126947</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3130142515783298</v>
+        <v>0.3140636584680546</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>936</v>
@@ -11329,19 +11329,19 @@
         <v>976093</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>914136</v>
+        <v>922216</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>1027547</v>
+        <v>1031018</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2758327168151308</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.2583246301402446</v>
+        <v>0.2606077520129846</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.290373090096111</v>
+        <v>0.2913541564603697</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>1906</v>
@@ -11350,19 +11350,19 @@
         <v>1982852</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>1904231</v>
+        <v>1909846</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>2058350</v>
+        <v>2066708</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.2862802572693368</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2749290175509899</v>
+        <v>0.2757396747430597</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2971804915515657</v>
+        <v>0.2983871142271937</v>
       </c>
     </row>
     <row r="50">
@@ -11379,19 +11379,19 @@
         <v>1704546</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>1642487</v>
+        <v>1640693</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>1754959</v>
+        <v>1763983</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.5031795412848833</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.4848599744140743</v>
+        <v>0.4843301423227854</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.5180613066240835</v>
+        <v>0.5207252865172145</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>1830</v>
@@ -11400,19 +11400,19 @@
         <v>1974697</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>1912760</v>
+        <v>1912426</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>2032909</v>
+        <v>2037075</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.5580271377770479</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.540524434902149</v>
+        <v>0.5404298597846448</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.574477043031777</v>
+        <v>0.5756542990244946</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>3458</v>
@@ -11421,19 +11421,19 @@
         <v>3679244</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>3603466</v>
+        <v>3592238</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>3765397</v>
+        <v>3756465</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.5312018498706619</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.5202611533007566</v>
+        <v>0.5186400888946513</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.5436404798882454</v>
+        <v>0.5423508678183859</v>
       </c>
     </row>
     <row r="51">
